--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -976,7 +976,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1076,6 +1076,18 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,10 +1100,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,10 +1112,13 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,13 +1166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,6 +1177,96 @@
     <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1273,96 +1372,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <name val="DengXian"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="表样式 1" pivot="0" count="0"/>
@@ -1376,22 +1385,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="3" headerRowCellStyle="好">
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="7"/>
-    <tableColumn id="2" name="买菜金额/元" dataDxfId="6"/>
-    <tableColumn id="3" name="备注" dataDxfId="5"/>
+    <tableColumn id="1" name="日期" dataDxfId="2"/>
+    <tableColumn id="2" name="买菜金额/元" dataDxfId="1"/>
+    <tableColumn id="3" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表3_6" displayName="表3_6" ref="A2:C32" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表3_6" displayName="表3_6" ref="A2:C32" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" headerRowCellStyle="好">
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="2"/>
-    <tableColumn id="2" name="买菜金额/元" dataDxfId="1"/>
-    <tableColumn id="3" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="日期" dataDxfId="8"/>
+    <tableColumn id="2" name="买菜金额/元" dataDxfId="7"/>
+    <tableColumn id="3" name="备注" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1662,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="86" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A8" zoomScale="86" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,19 +1685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1726,28 +1735,28 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41">
+      <c r="A3" s="45">
         <v>43190</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="36">
         <v>0</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="36">
         <v>1</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="36">
         <v>1</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="36">
         <v>1</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="36">
         <v>1</v>
       </c>
       <c r="I3" s="25"/>
@@ -1764,16 +1773,16 @@
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1788,13 +1797,13 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="42">
+      <c r="A5" s="46">
         <v>43191</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>0</v>
       </c>
       <c r="D5" s="24">
@@ -1806,10 +1815,10 @@
       <c r="F5" s="24">
         <v>0.5</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="44">
         <v>1</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="44">
         <v>0</v>
       </c>
       <c r="I5" s="26"/>
@@ -1826,11 +1835,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -1840,8 +1849,8 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -1856,13 +1865,13 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41">
+      <c r="A7" s="45">
         <v>43192</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="23">
@@ -1874,10 +1883,10 @@
       <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="36">
         <v>1</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="36">
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
@@ -1894,11 +1903,11 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="23">
         <v>0.5</v>
       </c>
@@ -1908,8 +1917,8 @@
       <c r="F8" s="23">
         <v>0.5</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -1924,34 +1933,34 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="42">
+      <c r="A9" s="46">
         <v>43193</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="38">
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="37">
         <v>1</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="37">
         <v>1</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="37">
         <v>1</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="37">
         <v>1</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="37">
         <v>1</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="37">
         <v>1</v>
       </c>
       <c r="K9" s="26"/>
@@ -1966,18 +1975,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1990,34 +1999,34 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
+      <c r="A11" s="45">
         <v>43194</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="36">
         <v>1</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="36">
         <v>1</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="36">
         <v>1</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="36">
         <v>1</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="36">
         <v>1</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="36">
         <v>1</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="36">
         <v>1</v>
       </c>
       <c r="K11" s="25"/>
@@ -2032,18 +2041,18 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="25"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
@@ -2056,7 +2065,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="42">
+      <c r="A13" s="46">
         <v>43195</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -2098,7 +2107,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -2138,34 +2147,34 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41">
+      <c r="A15" s="45">
         <v>43196</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <v>0</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <v>1</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="36">
         <v>1</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <v>1</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="36">
         <v>1</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="36">
         <v>1</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="36">
         <v>1</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="36">
         <v>1</v>
       </c>
       <c r="K15" s="25"/>
@@ -2180,18 +2189,18 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="25"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
@@ -2204,34 +2213,34 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
+      <c r="A17" s="46">
         <v>43197</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="44">
         <v>0</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="37">
         <v>1</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="37">
         <v>1</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="37">
         <v>1</v>
       </c>
-      <c r="H17" s="43">
+      <c r="H17" s="44">
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="37">
         <v>1</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="37">
         <v>1</v>
       </c>
       <c r="K17" s="26">
@@ -2248,18 +2257,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="26">
         <v>0.5</v>
       </c>
@@ -2274,7 +2283,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41">
+      <c r="A19" s="45">
         <v>43198</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2283,28 +2292,28 @@
       <c r="C19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="36">
         <v>1</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="36">
         <v>1</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="36">
         <v>1</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="36">
         <v>1</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="36">
         <v>1</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="36">
         <v>1</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="36">
         <v>1</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="36">
         <v>1</v>
       </c>
       <c r="O19" s="20"/>
@@ -2318,19 +2327,19 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -2342,7 +2351,7 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+      <c r="A21" s="46">
         <v>43199</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -2351,28 +2360,28 @@
       <c r="C21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="37">
         <v>1</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="37">
         <v>1</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="37">
         <v>1</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="37">
         <v>1</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="37">
         <v>1</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="37">
         <v>1</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="37">
         <v>1</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="37">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
@@ -2386,19 +2395,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="42"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2410,35 +2419,35 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41">
+      <c r="A23" s="45">
         <v>43200</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="39">
+      <c r="D23" s="36">
         <v>1</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="36">
         <v>1</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="36">
         <v>1</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="36">
         <v>1</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="36">
         <v>1</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="36">
         <v>1</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="36">
         <v>1</v>
       </c>
       <c r="O23" s="20"/>
@@ -2452,19 +2461,19 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
@@ -2476,35 +2485,35 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="42">
+      <c r="A25" s="46">
         <v>43201</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="34">
+      <c r="D25" s="37">
         <v>1</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="37">
         <v>1</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="37">
         <v>1</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="37">
         <v>1</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="37">
         <v>1</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="37">
         <v>1</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="37">
         <v>1</v>
       </c>
       <c r="O25" s="2"/>
@@ -2518,19 +2527,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2542,35 +2551,35 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41">
+      <c r="A27" s="45">
         <v>43202</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="39">
+      <c r="D27" s="36">
         <v>1</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="36">
         <v>1</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="36">
         <v>1</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="36">
         <v>1</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="36">
         <v>1</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="36">
         <v>1</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="36">
         <v>0</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="36">
         <v>1</v>
       </c>
       <c r="O27" s="20"/>
@@ -2584,19 +2593,19 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
@@ -2608,35 +2617,35 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="42">
+      <c r="A29" s="46">
         <v>43203</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="40">
+      <c r="D29" s="38">
         <v>0</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="37">
         <v>1</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="37">
         <v>1</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="37">
         <v>1</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="37">
         <v>1</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="37">
         <v>1</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="38">
         <v>0</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="37">
         <v>1</v>
       </c>
       <c r="O29" s="2"/>
@@ -2650,19 +2659,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="34"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="37"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2674,35 +2683,35 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41">
+      <c r="A31" s="45">
         <v>43204</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="39">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="36">
         <v>1</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="36">
         <v>1</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="36">
         <v>1</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="36">
         <v>1</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="36">
         <v>1</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="36">
         <v>0</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="36">
         <v>1</v>
       </c>
       <c r="O31" s="20"/>
@@ -2716,19 +2725,19 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
@@ -2740,35 +2749,35 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="42">
+      <c r="A33" s="46">
         <v>43205</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="34">
+      <c r="D33" s="37">
         <v>1</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="39">
         <v>1</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="39">
         <v>1</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="39">
         <v>1</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="39">
         <v>1</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="39">
         <v>1</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="41">
         <v>0</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="39">
         <v>1</v>
       </c>
       <c r="O33" s="2"/>
@@ -2782,19 +2791,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="40"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2806,35 +2815,35 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41">
+      <c r="A35" s="45">
         <v>43206</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="39">
+      <c r="D35" s="36">
         <v>1</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="36">
         <v>1</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="36">
         <v>1</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="36">
         <v>1</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="36">
         <v>1</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="36">
         <v>1</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="36">
         <v>0</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="36">
         <v>1</v>
       </c>
       <c r="O35" s="20"/>
@@ -2848,19 +2857,19 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
@@ -2872,35 +2881,35 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="42">
+      <c r="A37" s="46">
         <v>43207</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="34">
+      <c r="D37" s="37">
         <v>1</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="39">
         <v>1</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="39">
         <v>1</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="39">
         <v>1</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="39">
         <v>1</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="39">
         <v>1</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="41">
         <v>0</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="39">
         <v>1</v>
       </c>
       <c r="O37" s="2"/>
@@ -2914,19 +2923,19 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="42"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="40"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2938,36 +2947,36 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="41">
+      <c r="A39" s="45">
         <v>43208</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="23"/>
-      <c r="D39" s="39">
+      <c r="D39" s="36">
+        <v>1</v>
+      </c>
+      <c r="E39" s="36">
+        <v>1</v>
+      </c>
+      <c r="F39" s="36">
+        <v>1</v>
+      </c>
+      <c r="G39" s="36">
+        <v>1</v>
+      </c>
+      <c r="H39" s="36">
+        <v>1</v>
+      </c>
+      <c r="I39" s="36">
+        <v>1</v>
+      </c>
+      <c r="J39" s="36">
         <v>0</v>
       </c>
-      <c r="E39" s="39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="39">
-        <v>0</v>
-      </c>
-      <c r="K39" s="25">
-        <v>0.5</v>
+      <c r="K39" s="36">
+        <v>1</v>
       </c>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
@@ -2980,25 +2989,19 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="23">
-        <v>0</v>
-      </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="25">
-        <v>0</v>
-      </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="25">
-        <v>0</v>
-      </c>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -3010,21 +3013,37 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="42">
+      <c r="A41" s="46">
         <v>43209</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="D41" s="37">
+        <v>0</v>
+      </c>
+      <c r="E41" s="37">
+        <v>0</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="37">
+        <v>0</v>
+      </c>
+      <c r="H41" s="37">
+        <v>0</v>
+      </c>
+      <c r="I41" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="37">
+        <v>0</v>
+      </c>
+      <c r="K41" s="65">
+        <v>0.5</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3036,19 +3055,25 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="34">
+        <v>0</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="65">
+        <v>0</v>
+      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="65">
+        <v>0</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3060,21 +3085,37 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41">
+      <c r="A43" s="45">
         <v>43210</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
+      <c r="D43" s="36">
+        <v>1</v>
+      </c>
+      <c r="E43" s="36">
+        <v>1</v>
+      </c>
+      <c r="F43" s="36">
+        <v>1</v>
+      </c>
+      <c r="G43" s="36">
+        <v>1</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1</v>
+      </c>
+      <c r="I43" s="36">
+        <v>1</v>
+      </c>
+      <c r="J43" s="36">
+        <v>0</v>
+      </c>
+      <c r="K43" s="36">
+        <v>1</v>
+      </c>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="20"/>
@@ -3086,19 +3127,19 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
@@ -3110,21 +3151,37 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="42">
+      <c r="A45" s="46">
         <v>43211</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="D45" s="37">
+        <v>1</v>
+      </c>
+      <c r="E45" s="39">
+        <v>1</v>
+      </c>
+      <c r="F45" s="39">
+        <v>1</v>
+      </c>
+      <c r="G45" s="39">
+        <v>1</v>
+      </c>
+      <c r="H45" s="39">
+        <v>1</v>
+      </c>
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
+      <c r="J45" s="41">
+        <v>0</v>
+      </c>
+      <c r="K45" s="39">
+        <v>1</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3136,19 +3193,19 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="40"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3160,7 +3217,7 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41">
+      <c r="A47" s="45">
         <v>43212</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -3186,7 +3243,7 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
@@ -3210,7 +3267,7 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="42">
+      <c r="A49" s="46">
         <v>43213</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -3236,7 +3293,7 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="42"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
@@ -3260,7 +3317,7 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="41">
+      <c r="A51" s="45">
         <v>43214</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3286,7 +3343,7 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
@@ -3310,7 +3367,7 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="42">
+      <c r="A53" s="46">
         <v>43215</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -3336,7 +3393,7 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="24" t="s">
         <v>17</v>
       </c>
@@ -3360,7 +3417,7 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="41">
+      <c r="A55" s="45">
         <v>43216</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -3386,7 +3443,7 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
@@ -3410,7 +3467,7 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="42">
+      <c r="A57" s="46">
         <v>43217</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -3436,7 +3493,7 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="42"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
@@ -3460,7 +3517,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="41">
+      <c r="A59" s="45">
         <v>43218</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -3486,7 +3543,7 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
@@ -3510,7 +3567,7 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="42">
+      <c r="A61" s="46">
         <v>43219</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -3536,7 +3593,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="42"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
@@ -3560,7 +3617,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41">
+      <c r="A63" s="45">
         <v>43220</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3586,7 +3643,7 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="23" t="s">
         <v>17</v>
       </c>
@@ -5337,48 +5394,120 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
+  <mergeCells count="185">
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
@@ -5403,78 +5532,47 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
@@ -5482,23 +5580,6 @@
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5510,8 +5591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5528,18 +5609,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5576,7 +5657,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="49">
+      <c r="E3" s="54">
         <v>43191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -5596,7 +5677,7 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="49"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5616,7 +5697,7 @@
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="49"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
@@ -5654,7 +5735,7 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="50">
+      <c r="E7" s="55">
         <v>43193</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -5676,7 +5757,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="30" t="s">
         <v>45</v>
       </c>
@@ -5694,7 +5775,7 @@
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="52">
+      <c r="E9" s="57">
         <v>43196</v>
       </c>
       <c r="F9" s="31" t="s">
@@ -5714,7 +5795,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="53"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="31" t="s">
         <v>52</v>
       </c>
@@ -5734,7 +5815,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="45">
+      <c r="E11" s="50">
         <v>43197</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -5754,7 +5835,7 @@
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="47"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
@@ -5772,7 +5853,7 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="46"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
@@ -5850,7 +5931,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="45">
+      <c r="E17" s="50">
         <v>43205</v>
       </c>
       <c r="F17" s="30" t="s">
@@ -5868,7 +5949,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="46"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="30" t="s">
         <v>67</v>
       </c>
@@ -5884,7 +5965,7 @@
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="47" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="31" t="s">
@@ -5902,7 +5983,7 @@
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="61"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="31" t="s">
         <v>72</v>
       </c>
@@ -5918,7 +5999,7 @@
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="61"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="31" t="s">
         <v>69</v>
       </c>
@@ -5931,10 +6012,12 @@
       <c r="A22" s="7">
         <v>43210</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="31">
+        <v>395</v>
+      </c>
       <c r="C22" s="31"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="61"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="31" t="s">
         <v>70</v>
       </c>
@@ -5950,7 +6033,7 @@
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="62"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="33" t="s">
         <v>73</v>
       </c>
@@ -5966,10 +6049,16 @@
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="E24" s="10">
+        <v>43211</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="35">
+        <v>70</v>
+      </c>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -6187,17 +6276,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="E1" s="54" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="E1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6596,17 +6685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -6644,7 +6733,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="63" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -6669,7 +6758,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="58"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
@@ -6692,7 +6781,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -6717,7 +6806,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="59"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="17" t="s">
         <v>37</v>
       </c>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -1079,13 +1079,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,16 +1097,22 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1166,9 +1169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1177,96 +1177,6 @@
     <cellStyle name="输入" xfId="2" builtinId="20"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <name val="DengXian"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1372,6 +1282,96 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <name val="DengXian"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="表样式 1" pivot="0" count="0"/>
@@ -1385,22 +1385,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowBorderDxfId="3" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" headerRowCellStyle="好">
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="2"/>
-    <tableColumn id="2" name="买菜金额/元" dataDxfId="1"/>
-    <tableColumn id="3" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="日期" dataDxfId="7"/>
+    <tableColumn id="2" name="买菜金额/元" dataDxfId="6"/>
+    <tableColumn id="3" name="备注" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表3_6" displayName="表3_6" ref="A2:C32" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表3_6" displayName="表3_6" ref="A2:C32" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" headerRowCellStyle="好">
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="8"/>
-    <tableColumn id="2" name="买菜金额/元" dataDxfId="7"/>
-    <tableColumn id="3" name="备注" dataDxfId="6"/>
+    <tableColumn id="1" name="日期" dataDxfId="2"/>
+    <tableColumn id="2" name="买菜金额/元" dataDxfId="1"/>
+    <tableColumn id="3" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1671,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="86" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,19 +1685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1735,28 +1735,28 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>43190</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="42">
         <v>0</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="42">
         <v>1</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="42">
         <v>1</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="42">
         <v>1</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="42">
         <v>1</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="42">
         <v>1</v>
       </c>
       <c r="I3" s="25"/>
@@ -1773,16 +1773,16 @@
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1797,13 +1797,13 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <v>43191</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="46">
         <v>0</v>
       </c>
       <c r="D5" s="24">
@@ -1815,10 +1815,10 @@
       <c r="F5" s="24">
         <v>0.5</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="46">
         <v>1</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="46">
         <v>0</v>
       </c>
       <c r="I5" s="26"/>
@@ -1835,11 +1835,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -1849,8 +1849,8 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -1865,13 +1865,13 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>43192</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="23">
@@ -1883,10 +1883,10 @@
       <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="42">
         <v>1</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="42">
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
@@ -1903,11 +1903,11 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="23">
         <v>0.5</v>
       </c>
@@ -1917,8 +1917,8 @@
       <c r="F8" s="23">
         <v>0.5</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -1933,13 +1933,13 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+      <c r="A9" s="45">
         <v>43193</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="43">
         <v>0</v>
       </c>
       <c r="D9" s="37">
@@ -1975,11 +1975,11 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
@@ -1999,34 +1999,34 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>43194</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="42">
         <v>1</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="42">
         <v>1</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="42">
         <v>1</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="42">
         <v>1</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="42">
         <v>1</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="42">
         <v>1</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="42">
         <v>1</v>
       </c>
       <c r="K11" s="25"/>
@@ -2041,18 +2041,18 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="25"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
@@ -2065,7 +2065,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>43195</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -2107,7 +2107,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -2147,34 +2147,34 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <v>43196</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="42">
         <v>0</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="42">
         <v>1</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="42">
         <v>1</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="42">
         <v>1</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="42">
         <v>1</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="42">
         <v>1</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="42">
         <v>1</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="42">
         <v>1</v>
       </c>
       <c r="K15" s="25"/>
@@ -2189,18 +2189,18 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="25"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
@@ -2213,7 +2213,7 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>43197</v>
       </c>
       <c r="B17" s="24" t="s">
@@ -2222,7 +2222,7 @@
       <c r="C17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="46">
         <v>0</v>
       </c>
       <c r="E17" s="37">
@@ -2234,7 +2234,7 @@
       <c r="G17" s="37">
         <v>1</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="46">
         <v>0</v>
       </c>
       <c r="I17" s="37">
@@ -2257,16 +2257,16 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="37"/>
-      <c r="D18" s="44"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="44"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="26">
@@ -2283,7 +2283,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
+      <c r="A19" s="44">
         <v>43198</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2292,28 +2292,28 @@
       <c r="C19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="42">
         <v>1</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="42">
         <v>1</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="42">
         <v>1</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="42">
         <v>1</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="42">
         <v>1</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="42">
         <v>1</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="42">
         <v>1</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="42">
         <v>1</v>
       </c>
       <c r="O19" s="20"/>
@@ -2327,19 +2327,19 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -2351,7 +2351,7 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="46">
+      <c r="A21" s="45">
         <v>43199</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -2395,7 +2395,7 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
@@ -2419,35 +2419,35 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
+      <c r="A23" s="44">
         <v>43200</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="36">
+      <c r="D23" s="42">
         <v>1</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="42">
         <v>1</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="42">
         <v>1</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="42">
         <v>1</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="42">
         <v>1</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="42">
         <v>1</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="42">
         <v>1</v>
       </c>
       <c r="O23" s="20"/>
@@ -2461,19 +2461,19 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
@@ -2485,7 +2485,7 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+      <c r="A25" s="45">
         <v>43201</v>
       </c>
       <c r="B25" s="24" t="s">
@@ -2527,7 +2527,7 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
       </c>
@@ -2551,35 +2551,35 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45">
+      <c r="A27" s="44">
         <v>43202</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="36">
+      <c r="D27" s="42">
         <v>1</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="42">
         <v>1</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="42">
         <v>1</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="42">
         <v>1</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="42">
         <v>1</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="42">
         <v>1</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="42">
         <v>0</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="42">
         <v>1</v>
       </c>
       <c r="O27" s="20"/>
@@ -2593,19 +2593,19 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
@@ -2617,14 +2617,14 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
+      <c r="A29" s="45">
         <v>43203</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="38">
+      <c r="D29" s="43">
         <v>0</v>
       </c>
       <c r="E29" s="37">
@@ -2642,7 +2642,7 @@
       <c r="I29" s="37">
         <v>1</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="43">
         <v>0</v>
       </c>
       <c r="K29" s="37">
@@ -2659,18 +2659,18 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="38"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="37"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2683,35 +2683,35 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45">
+      <c r="A31" s="44">
         <v>43204</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="36">
+      <c r="D31" s="42">
         <v>0</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="42">
         <v>1</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="42">
         <v>1</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="42">
         <v>1</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="42">
         <v>1</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="42">
         <v>1</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="42">
         <v>0</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="42">
         <v>1</v>
       </c>
       <c r="O31" s="20"/>
@@ -2725,19 +2725,19 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
@@ -2749,7 +2749,7 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
+      <c r="A33" s="45">
         <v>43205</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -2759,25 +2759,25 @@
       <c r="D33" s="37">
         <v>1</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="38">
         <v>1</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <v>1</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <v>1</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="38">
         <v>1</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="38">
         <v>1</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="40">
         <v>0</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="38">
         <v>1</v>
       </c>
       <c r="O33" s="2"/>
@@ -2791,19 +2791,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="40"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="39"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2815,35 +2815,35 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45">
+      <c r="A35" s="44">
         <v>43206</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="36">
+      <c r="D35" s="42">
         <v>1</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="42">
         <v>1</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="42">
         <v>1</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="42">
         <v>1</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="42">
         <v>1</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="42">
         <v>1</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="42">
         <v>0</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="42">
         <v>1</v>
       </c>
       <c r="O35" s="20"/>
@@ -2857,19 +2857,19 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
@@ -2881,7 +2881,7 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
+      <c r="A37" s="45">
         <v>43207</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -2891,25 +2891,25 @@
       <c r="D37" s="37">
         <v>1</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="38">
         <v>1</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="38">
         <v>1</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="38">
         <v>1</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="38">
         <v>1</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="38">
         <v>1</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="40">
         <v>0</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="38">
         <v>1</v>
       </c>
       <c r="O37" s="2"/>
@@ -2923,19 +2923,19 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="24"/>
       <c r="D38" s="37"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="40"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="39"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2947,35 +2947,35 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45">
+      <c r="A39" s="44">
         <v>43208</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="23"/>
-      <c r="D39" s="36">
+      <c r="D39" s="42">
         <v>1</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="42">
         <v>1</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="42">
         <v>1</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="42">
         <v>1</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="42">
         <v>1</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="42">
         <v>1</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="42">
         <v>0</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="42">
         <v>1</v>
       </c>
       <c r="O39" s="20"/>
@@ -2989,19 +2989,19 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -3013,7 +3013,7 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="46">
+      <c r="A41" s="45">
         <v>43209</v>
       </c>
       <c r="B41" s="24" t="s">
@@ -3035,13 +3035,13 @@
       <c r="H41" s="37">
         <v>0</v>
       </c>
-      <c r="I41" s="65">
+      <c r="I41" s="36">
         <v>0.5</v>
       </c>
       <c r="J41" s="37">
         <v>0</v>
       </c>
-      <c r="K41" s="65">
+      <c r="K41" s="36">
         <v>0.5</v>
       </c>
       <c r="O41" s="2"/>
@@ -3055,7 +3055,7 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="24" t="s">
         <v>17</v>
       </c>
@@ -3067,11 +3067,11 @@
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="65">
+      <c r="I42" s="36">
         <v>0</v>
       </c>
       <c r="J42" s="37"/>
-      <c r="K42" s="65">
+      <c r="K42" s="36">
         <v>0</v>
       </c>
       <c r="O42" s="2"/>
@@ -3085,35 +3085,35 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="45">
+      <c r="A43" s="44">
         <v>43210</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="36">
+      <c r="D43" s="42">
         <v>1</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="42">
         <v>1</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="42">
         <v>1</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="42">
         <v>1</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="42">
         <v>1</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="42">
         <v>1</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="42">
         <v>0</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="42">
         <v>1</v>
       </c>
       <c r="O43" s="20"/>
@@ -3127,19 +3127,19 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
@@ -3151,7 +3151,7 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="46">
+      <c r="A45" s="45">
         <v>43211</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -3161,25 +3161,25 @@
       <c r="D45" s="37">
         <v>1</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="38">
         <v>1</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="38">
         <v>1</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="38">
         <v>1</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="38">
         <v>1</v>
       </c>
-      <c r="I45" s="39">
+      <c r="I45" s="38">
         <v>1</v>
       </c>
-      <c r="J45" s="41">
+      <c r="J45" s="40">
         <v>0</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K45" s="38">
         <v>1</v>
       </c>
       <c r="O45" s="2"/>
@@ -3193,19 +3193,19 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="37"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="40"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="39"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3217,21 +3217,37 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45">
+      <c r="A47" s="44">
         <v>43212</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="D47" s="42">
+        <v>1</v>
+      </c>
+      <c r="E47" s="42">
+        <v>1</v>
+      </c>
+      <c r="F47" s="42">
+        <v>1</v>
+      </c>
+      <c r="G47" s="42">
+        <v>1</v>
+      </c>
+      <c r="H47" s="42">
+        <v>1</v>
+      </c>
+      <c r="I47" s="42">
+        <v>1</v>
+      </c>
+      <c r="J47" s="42">
+        <v>0</v>
+      </c>
+      <c r="K47" s="42">
+        <v>1</v>
+      </c>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="20"/>
@@ -3243,19 +3259,19 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
@@ -3267,7 +3283,7 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="45">
         <v>43213</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -3293,7 +3309,7 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3333,7 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45">
+      <c r="A51" s="44">
         <v>43214</v>
       </c>
       <c r="B51" s="23" t="s">
@@ -3343,7 +3359,7 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3383,7 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="45">
         <v>43215</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -3393,7 +3409,7 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="24" t="s">
         <v>17</v>
       </c>
@@ -3417,7 +3433,7 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45">
+      <c r="A55" s="44">
         <v>43216</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -3443,7 +3459,7 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
@@ -3467,7 +3483,7 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="46">
+      <c r="A57" s="45">
         <v>43217</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -3493,7 +3509,7 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
@@ -3517,7 +3533,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
+      <c r="A59" s="44">
         <v>43218</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -3543,7 +3559,7 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
@@ -3567,7 +3583,7 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="46">
+      <c r="A61" s="45">
         <v>43219</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -3593,7 +3609,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
@@ -3617,7 +3633,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45">
+      <c r="A63" s="44">
         <v>43220</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3643,7 +3659,7 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="23" t="s">
         <v>17</v>
       </c>
@@ -5394,48 +5410,123 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
+  <mergeCells count="193">
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A59:A60"/>
@@ -5460,126 +5551,59 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
     <mergeCell ref="K27:K28"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J41:J42"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5591,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A5" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5609,18 +5633,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5657,7 +5681,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="54">
+      <c r="E3" s="55">
         <v>43191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -5677,7 +5701,7 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5697,7 +5721,7 @@
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
@@ -5735,7 +5759,7 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="55">
+      <c r="E7" s="56">
         <v>43193</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -5757,7 +5781,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="30" t="s">
         <v>45</v>
       </c>
@@ -5775,7 +5799,7 @@
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="57">
+      <c r="E9" s="58">
         <v>43196</v>
       </c>
       <c r="F9" s="31" t="s">
@@ -5795,7 +5819,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="31" t="s">
         <v>52</v>
       </c>
@@ -5815,7 +5839,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="50">
+      <c r="E11" s="51">
         <v>43197</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -5835,7 +5859,7 @@
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="52"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
@@ -5853,7 +5877,7 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
@@ -5931,7 +5955,7 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="50">
+      <c r="E17" s="51">
         <v>43205</v>
       </c>
       <c r="F17" s="30" t="s">
@@ -5949,7 +5973,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="30" t="s">
         <v>67</v>
       </c>
@@ -5965,7 +5989,7 @@
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="48" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="31" t="s">
@@ -5983,7 +6007,7 @@
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="31" t="s">
         <v>72</v>
       </c>
@@ -5999,7 +6023,7 @@
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="31" t="s">
         <v>69</v>
       </c>
@@ -6017,7 +6041,7 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="48"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="31" t="s">
         <v>70</v>
       </c>
@@ -6033,7 +6057,7 @@
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="49"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="33" t="s">
         <v>73</v>
       </c>
@@ -6276,17 +6300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="E1" s="59" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="E1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6685,17 +6709,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -6733,7 +6757,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -6758,7 +6782,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
@@ -6781,7 +6805,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="65" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -6806,7 +6830,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="64"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="17" t="s">
         <v>37</v>
       </c>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -729,7 +729,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>水管接头</t>
+    <rPh sb="0" eb="1">
+      <t>shui'guan'jie'tou</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房作料</t>
+    <rPh sb="0" eb="1">
+      <t>chu'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuo'li'ao</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>生姜</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'jiang</t>
+    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1070,9 +1090,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,6 +1097,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,22 +1120,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1671,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D40"/>
+    <sheetView zoomScale="60" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,19 +1705,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1735,28 +1755,28 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44">
+      <c r="A3" s="46">
         <v>43190</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="37">
         <v>0</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="37">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="37">
         <v>1</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="37">
         <v>1</v>
       </c>
       <c r="I3" s="25"/>
@@ -1773,16 +1793,16 @@
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1797,13 +1817,13 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
+      <c r="A5" s="47">
         <v>43191</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0</v>
       </c>
       <c r="D5" s="24">
@@ -1815,10 +1835,10 @@
       <c r="F5" s="24">
         <v>0.5</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>1</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>0</v>
       </c>
       <c r="I5" s="26"/>
@@ -1835,11 +1855,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -1849,8 +1869,8 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -1865,13 +1885,13 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
+      <c r="A7" s="46">
         <v>43192</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="23">
@@ -1883,10 +1903,10 @@
       <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="37">
         <v>1</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="37">
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
@@ -1903,11 +1923,11 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="23">
         <v>0.5</v>
       </c>
@@ -1917,8 +1937,8 @@
       <c r="F8" s="23">
         <v>0.5</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -1933,7 +1953,7 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="47">
         <v>43193</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -1942,25 +1962,25 @@
       <c r="C9" s="43">
         <v>0</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="38">
         <v>1</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="38">
         <v>1</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="38">
         <v>1</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="38">
         <v>1</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="38">
         <v>1</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="38">
         <v>1</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="38">
         <v>1</v>
       </c>
       <c r="K9" s="26"/>
@@ -1975,18 +1995,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1999,34 +2019,34 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
+      <c r="A11" s="46">
         <v>43194</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="37">
         <v>1</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="37">
         <v>1</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="37">
         <v>1</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="37">
         <v>1</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="37">
         <v>1</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="37">
         <v>1</v>
       </c>
       <c r="K11" s="25"/>
@@ -2041,18 +2061,18 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
       <c r="K12" s="25"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
@@ -2065,7 +2085,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="47">
         <v>43195</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -2107,7 +2127,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -2147,34 +2167,34 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44">
+      <c r="A15" s="46">
         <v>43196</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="37">
         <v>0</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="37">
         <v>1</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="37">
         <v>1</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="37">
         <v>1</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="37">
         <v>1</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="37">
         <v>1</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="37">
         <v>1</v>
       </c>
       <c r="K15" s="25"/>
@@ -2189,18 +2209,18 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
       <c r="K16" s="25"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
@@ -2213,34 +2233,34 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="A17" s="47">
         <v>43197</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="45">
         <v>0</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="38">
         <v>1</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="38">
         <v>1</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="45">
         <v>0</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="38">
         <v>1</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="38">
         <v>1</v>
       </c>
       <c r="K17" s="26">
@@ -2257,18 +2277,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="26">
         <v>0.5</v>
       </c>
@@ -2283,7 +2303,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44">
+      <c r="A19" s="46">
         <v>43198</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2292,28 +2312,28 @@
       <c r="C19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="37">
         <v>1</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="37">
         <v>1</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="37">
         <v>1</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="37">
         <v>1</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="37">
         <v>1</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="37">
         <v>1</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="37">
         <v>1</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="37">
         <v>1</v>
       </c>
       <c r="O19" s="20"/>
@@ -2327,19 +2347,19 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -2351,7 +2371,7 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="45">
+      <c r="A21" s="47">
         <v>43199</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -2360,28 +2380,28 @@
       <c r="C21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="38">
         <v>1</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="38">
         <v>1</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="38">
         <v>1</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="38">
         <v>1</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="38">
         <v>1</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="38">
         <v>1</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="38">
         <v>1</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="38">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
@@ -2395,19 +2415,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2419,35 +2439,35 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44">
+      <c r="A23" s="46">
         <v>43200</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="42">
+      <c r="D23" s="37">
         <v>1</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="37">
         <v>1</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="37">
         <v>1</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="37">
         <v>1</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="37">
         <v>1</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="37">
         <v>1</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="37">
         <v>1</v>
       </c>
       <c r="O23" s="20"/>
@@ -2461,19 +2481,19 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
@@ -2485,35 +2505,35 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="45">
+      <c r="A25" s="47">
         <v>43201</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="37">
+      <c r="D25" s="38">
         <v>1</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="38">
         <v>1</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="38">
         <v>1</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="38">
         <v>1</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="38">
         <v>1</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="38">
         <v>1</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="38">
         <v>1</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="38">
         <v>1</v>
       </c>
       <c r="O25" s="2"/>
@@ -2527,19 +2547,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2551,35 +2571,35 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44">
+      <c r="A27" s="46">
         <v>43202</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="42">
+      <c r="D27" s="37">
         <v>1</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="37">
         <v>1</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="37">
         <v>1</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="37">
         <v>1</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="37">
         <v>1</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="37">
         <v>1</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="37">
         <v>0</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="37">
         <v>1</v>
       </c>
       <c r="O27" s="20"/>
@@ -2593,19 +2613,19 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
@@ -2617,7 +2637,7 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="45">
+      <c r="A29" s="47">
         <v>43203</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2627,25 +2647,25 @@
       <c r="D29" s="43">
         <v>0</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="38">
         <v>1</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="38">
         <v>1</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="38">
         <v>1</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="38">
         <v>1</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="38">
         <v>1</v>
       </c>
       <c r="J29" s="43">
         <v>0</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="38">
         <v>1</v>
       </c>
       <c r="O29" s="2"/>
@@ -2659,19 +2679,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="43"/>
-      <c r="K30" s="37"/>
+      <c r="K30" s="38"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2683,35 +2703,35 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44">
+      <c r="A31" s="46">
         <v>43204</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="42">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="37">
         <v>1</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="37">
         <v>1</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="37">
         <v>1</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="37">
         <v>1</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="37">
         <v>1</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="37">
         <v>0</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="37">
         <v>1</v>
       </c>
       <c r="O31" s="20"/>
@@ -2725,19 +2745,19 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
@@ -2749,35 +2769,35 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="45">
+      <c r="A33" s="47">
         <v>43205</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="37">
+      <c r="D33" s="38">
         <v>1</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="39">
         <v>1</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="39">
         <v>1</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="39">
         <v>1</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="39">
         <v>1</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="39">
         <v>1</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="41">
         <v>0</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="39">
         <v>1</v>
       </c>
       <c r="O33" s="2"/>
@@ -2791,19 +2811,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="39"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="40"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2815,35 +2835,35 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44">
+      <c r="A35" s="46">
         <v>43206</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="42">
+      <c r="D35" s="37">
         <v>1</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="37">
         <v>1</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="37">
         <v>1</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="37">
         <v>1</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="37">
         <v>1</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="37">
         <v>1</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="37">
         <v>0</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="37">
         <v>1</v>
       </c>
       <c r="O35" s="20"/>
@@ -2857,19 +2877,19 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
@@ -2881,35 +2901,35 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="45">
+      <c r="A37" s="47">
         <v>43207</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="37">
+      <c r="D37" s="38">
         <v>1</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="39">
         <v>1</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="39">
         <v>1</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="39">
         <v>1</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="39">
         <v>1</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="39">
         <v>1</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="41">
         <v>0</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="39">
         <v>1</v>
       </c>
       <c r="O37" s="2"/>
@@ -2923,19 +2943,19 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="39"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="40"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2947,35 +2967,35 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44">
+      <c r="A39" s="46">
         <v>43208</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="23"/>
-      <c r="D39" s="42">
+      <c r="D39" s="37">
         <v>1</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="37">
         <v>1</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="37">
         <v>1</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="37">
         <v>1</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="37">
         <v>1</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="37">
         <v>1</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J39" s="37">
         <v>0</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="37">
         <v>1</v>
       </c>
       <c r="O39" s="20"/>
@@ -2989,19 +3009,19 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -3013,35 +3033,35 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="45">
+      <c r="A41" s="47">
         <v>43209</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="37">
+      <c r="D41" s="38">
         <v>0</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="38">
         <v>0</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="33">
         <v>0.5</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="38">
         <v>0</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="38">
         <v>0</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="35">
         <v>0.5</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="38">
         <v>0</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="35">
         <v>0.5</v>
       </c>
       <c r="O41" s="2"/>
@@ -3055,23 +3075,23 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="34">
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="33">
         <v>0</v>
       </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="36">
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="35">
         <v>0</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="36">
+      <c r="J42" s="38"/>
+      <c r="K42" s="35">
         <v>0</v>
       </c>
       <c r="O42" s="2"/>
@@ -3085,35 +3105,35 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44">
+      <c r="A43" s="46">
         <v>43210</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="42">
+      <c r="D43" s="37">
         <v>1</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="37">
         <v>1</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="37">
         <v>1</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="37">
         <v>1</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="37">
         <v>1</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="37">
         <v>1</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="37">
         <v>0</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="37">
         <v>1</v>
       </c>
       <c r="O43" s="20"/>
@@ -3127,19 +3147,19 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
@@ -3151,35 +3171,35 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="45">
+      <c r="A45" s="47">
         <v>43211</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="37">
+      <c r="D45" s="38">
         <v>1</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="39">
         <v>1</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="39">
         <v>1</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="39">
         <v>1</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="39">
         <v>1</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="39">
         <v>1</v>
       </c>
-      <c r="J45" s="40">
+      <c r="J45" s="41">
         <v>0</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="39">
         <v>1</v>
       </c>
       <c r="O45" s="2"/>
@@ -3193,19 +3213,19 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="39"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="40"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3217,35 +3237,35 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44">
+      <c r="A47" s="46">
         <v>43212</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="42">
+      <c r="D47" s="37">
         <v>1</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="37">
         <v>1</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="37">
         <v>1</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="37">
         <v>1</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="37">
         <v>1</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="37">
         <v>1</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="37">
         <v>0</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="37">
         <v>1</v>
       </c>
       <c r="O47" s="20"/>
@@ -3259,19 +3279,19 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
@@ -3283,7 +3303,7 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="45">
+      <c r="A49" s="47">
         <v>43213</v>
       </c>
       <c r="B49" s="24" t="s">
@@ -3309,7 +3329,7 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
@@ -3333,21 +3353,37 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44">
+      <c r="A51" s="46">
         <v>43214</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
+      <c r="D51" s="37">
+        <v>0</v>
+      </c>
+      <c r="E51" s="37">
+        <v>1</v>
+      </c>
+      <c r="F51" s="37">
+        <v>1</v>
+      </c>
+      <c r="G51" s="37">
+        <v>1</v>
+      </c>
+      <c r="H51" s="37">
+        <v>1</v>
+      </c>
+      <c r="I51" s="37">
+        <v>0</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0</v>
+      </c>
+      <c r="K51" s="37">
+        <v>1</v>
+      </c>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
       <c r="Q51" s="20"/>
@@ -3359,19 +3395,19 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="20"/>
@@ -3383,7 +3419,7 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="45">
+      <c r="A53" s="47">
         <v>43215</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -3409,7 +3445,7 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="24" t="s">
         <v>17</v>
       </c>
@@ -3433,7 +3469,7 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="44">
+      <c r="A55" s="46">
         <v>43216</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -3459,7 +3495,7 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
@@ -3483,7 +3519,7 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="45">
+      <c r="A57" s="47">
         <v>43217</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -3509,7 +3545,7 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
@@ -3533,7 +3569,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="44">
+      <c r="A59" s="46">
         <v>43218</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -3559,7 +3595,7 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
@@ -3583,7 +3619,7 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="45">
+      <c r="A61" s="47">
         <v>43219</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -3609,7 +3645,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
@@ -3633,7 +3669,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="44">
+      <c r="A63" s="46">
         <v>43220</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3659,7 +3695,7 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="23" t="s">
         <v>17</v>
       </c>
@@ -5410,51 +5446,138 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="193">
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
+  <mergeCells count="201">
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
@@ -5479,131 +5602,52 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
     <mergeCell ref="K37:K38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J42"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5615,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5639,12 +5683,12 @@
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6020,8 +6064,12 @@
       <c r="A21" s="10">
         <v>43209</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="30">
+        <v>11</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>75</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="49"/>
       <c r="F21" s="31" t="s">
@@ -6041,7 +6089,7 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="49"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="31" t="s">
         <v>70</v>
       </c>
@@ -6057,14 +6105,16 @@
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="31">
-        <v>11</v>
-      </c>
-      <c r="H23" s="31"/>
+      <c r="E23" s="10">
+        <v>43211</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="34">
+        <v>70</v>
+      </c>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
@@ -6073,16 +6123,16 @@
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="10">
-        <v>43211</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="35">
-        <v>70</v>
-      </c>
-      <c r="H24" s="35"/>
+      <c r="E24" s="9">
+        <v>43214</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="31">
+        <v>65</v>
+      </c>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
@@ -6100,8 +6150,12 @@
       <c r="A26" s="7">
         <v>43214</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="36">
+        <v>34</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -6175,10 +6229,6 @@
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
     </row>
     <row r="43" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
@@ -6261,7 +6311,6 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E19:E23"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:C1"/>
@@ -6269,6 +6318,7 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -568,10 +568,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1(驾驶+车)(妹夫顶替)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>菜+鸡蛋</t>
     <rPh sb="0" eb="1">
       <t>cai</t>
@@ -750,6 +746,39 @@
     <rPh sb="0" eb="1">
       <t>sheng'jiang</t>
     </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水管、水管接头</t>
+    <rPh sb="0" eb="1">
+      <t>shui'guan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui'guan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie'tou</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打气筒、小推车内胎、轴承</t>
+    <rPh sb="0" eb="1">
+      <t>da'qi'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao'tui'che</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nei'tai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhou'cheng</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(驾驶+车)(妹夫顶替)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -996,7 +1025,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,6 +1131,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,25 +1155,16 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,6 +1194,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1187,6 +1219,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1691,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W150"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView topLeftCell="A32" zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1705,19 +1749,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1755,28 +1799,28 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="45">
         <v>43190</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="38">
         <v>0</v>
       </c>
-      <c r="D3" s="37">
-        <v>1</v>
-      </c>
-      <c r="E3" s="37">
-        <v>1</v>
-      </c>
-      <c r="F3" s="37">
-        <v>1</v>
-      </c>
-      <c r="G3" s="37">
-        <v>1</v>
-      </c>
-      <c r="H3" s="37">
+      <c r="D3" s="38">
+        <v>1</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38">
         <v>1</v>
       </c>
       <c r="I3" s="25"/>
@@ -1793,16 +1837,16 @@
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -1817,13 +1861,13 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
+      <c r="A5" s="46">
         <v>43191</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="47">
         <v>0</v>
       </c>
       <c r="D5" s="24">
@@ -1835,10 +1879,10 @@
       <c r="F5" s="24">
         <v>0.5</v>
       </c>
-      <c r="G5" s="45">
-        <v>1</v>
-      </c>
-      <c r="H5" s="45">
+      <c r="G5" s="47">
+        <v>1</v>
+      </c>
+      <c r="H5" s="47">
         <v>0</v>
       </c>
       <c r="I5" s="26"/>
@@ -1855,11 +1899,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -1869,8 +1913,8 @@
       <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -1885,13 +1929,13 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>43192</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="23">
@@ -1903,10 +1947,10 @@
       <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="37">
-        <v>1</v>
-      </c>
-      <c r="H7" s="37">
+      <c r="G7" s="38">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38">
         <v>0</v>
       </c>
       <c r="I7" s="25"/>
@@ -1923,11 +1967,11 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="23">
         <v>0.5</v>
       </c>
@@ -1937,8 +1981,8 @@
       <c r="F8" s="23">
         <v>0.5</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -1953,34 +1997,34 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="47">
+      <c r="A9" s="46">
         <v>43193</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="44">
         <v>0</v>
       </c>
-      <c r="D9" s="38">
-        <v>1</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1</v>
-      </c>
-      <c r="G9" s="38">
-        <v>1</v>
-      </c>
-      <c r="H9" s="38">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39">
+        <v>1</v>
+      </c>
+      <c r="H9" s="39">
+        <v>1</v>
+      </c>
+      <c r="I9" s="39">
+        <v>1</v>
+      </c>
+      <c r="J9" s="39">
         <v>1</v>
       </c>
       <c r="K9" s="26"/>
@@ -1995,18 +2039,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="26"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2019,34 +2063,34 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>43194</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="37">
-        <v>1</v>
-      </c>
-      <c r="E11" s="37">
-        <v>1</v>
-      </c>
-      <c r="F11" s="37">
-        <v>1</v>
-      </c>
-      <c r="G11" s="37">
-        <v>1</v>
-      </c>
-      <c r="H11" s="37">
-        <v>1</v>
-      </c>
-      <c r="I11" s="37">
-        <v>1</v>
-      </c>
-      <c r="J11" s="37">
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38">
+        <v>1</v>
+      </c>
+      <c r="H11" s="38">
+        <v>1</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="38">
         <v>1</v>
       </c>
       <c r="K11" s="25"/>
@@ -2061,18 +2105,18 @@
       <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="25"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
@@ -2085,7 +2129,7 @@
       <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
+      <c r="A13" s="46">
         <v>43195</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -2127,7 +2171,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
@@ -2167,37 +2211,39 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>43196</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="38">
         <v>0</v>
       </c>
-      <c r="D15" s="37">
-        <v>1</v>
-      </c>
-      <c r="E15" s="37">
-        <v>1</v>
-      </c>
-      <c r="F15" s="37">
-        <v>1</v>
-      </c>
-      <c r="G15" s="37">
-        <v>1</v>
-      </c>
-      <c r="H15" s="37">
-        <v>1</v>
-      </c>
-      <c r="I15" s="37">
-        <v>1</v>
-      </c>
-      <c r="J15" s="37">
-        <v>1</v>
-      </c>
-      <c r="K15" s="25"/>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1</v>
+      </c>
+      <c r="I15" s="38">
+        <v>1</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0</v>
+      </c>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -2209,19 +2255,19 @@
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="25"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
@@ -2233,34 +2279,34 @@
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
+      <c r="A17" s="46">
         <v>43197</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="45">
+      <c r="C17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="47">
         <v>0</v>
       </c>
-      <c r="E17" s="38">
-        <v>1</v>
-      </c>
-      <c r="F17" s="38">
-        <v>1</v>
-      </c>
-      <c r="G17" s="38">
-        <v>1</v>
-      </c>
-      <c r="H17" s="45">
+      <c r="E17" s="39">
+        <v>1</v>
+      </c>
+      <c r="F17" s="39">
+        <v>1</v>
+      </c>
+      <c r="G17" s="39">
+        <v>1</v>
+      </c>
+      <c r="H17" s="47">
         <v>0</v>
       </c>
-      <c r="I17" s="38">
-        <v>1</v>
-      </c>
-      <c r="J17" s="38">
+      <c r="I17" s="39">
+        <v>1</v>
+      </c>
+      <c r="J17" s="39">
         <v>1</v>
       </c>
       <c r="K17" s="26">
@@ -2277,18 +2323,18 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="26">
         <v>0.5</v>
       </c>
@@ -2303,7 +2349,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="45">
         <v>43198</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -2312,28 +2358,28 @@
       <c r="C19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="37">
-        <v>1</v>
-      </c>
-      <c r="E19" s="37">
-        <v>1</v>
-      </c>
-      <c r="F19" s="37">
-        <v>1</v>
-      </c>
-      <c r="G19" s="37">
-        <v>1</v>
-      </c>
-      <c r="H19" s="37">
-        <v>1</v>
-      </c>
-      <c r="I19" s="37">
-        <v>1</v>
-      </c>
-      <c r="J19" s="37">
-        <v>1</v>
-      </c>
-      <c r="K19" s="37">
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1</v>
+      </c>
+      <c r="H19" s="38">
+        <v>1</v>
+      </c>
+      <c r="I19" s="38">
+        <v>1</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+      <c r="K19" s="38">
         <v>1</v>
       </c>
       <c r="O19" s="20"/>
@@ -2347,19 +2393,19 @@
       <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -2371,37 +2417,37 @@
       <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
+      <c r="A21" s="46">
         <v>43199</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="38">
-        <v>1</v>
-      </c>
-      <c r="E21" s="38">
-        <v>1</v>
-      </c>
-      <c r="F21" s="38">
-        <v>1</v>
-      </c>
-      <c r="G21" s="38">
-        <v>1</v>
-      </c>
-      <c r="H21" s="38">
-        <v>1</v>
-      </c>
-      <c r="I21" s="38">
-        <v>1</v>
-      </c>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="38">
+        <v>61</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <v>1</v>
+      </c>
+      <c r="G21" s="39">
+        <v>1</v>
+      </c>
+      <c r="H21" s="39">
+        <v>1</v>
+      </c>
+      <c r="I21" s="39">
+        <v>1</v>
+      </c>
+      <c r="J21" s="39">
+        <v>1</v>
+      </c>
+      <c r="K21" s="39">
         <v>1</v>
       </c>
       <c r="O21" s="2"/>
@@ -2415,19 +2461,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2439,35 +2485,35 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="45">
         <v>43200</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="23"/>
-      <c r="D23" s="37">
-        <v>1</v>
-      </c>
-      <c r="E23" s="37">
-        <v>1</v>
-      </c>
-      <c r="F23" s="37">
-        <v>1</v>
-      </c>
-      <c r="G23" s="37">
-        <v>1</v>
-      </c>
-      <c r="H23" s="37">
-        <v>1</v>
-      </c>
-      <c r="I23" s="37">
-        <v>1</v>
-      </c>
-      <c r="J23" s="37">
-        <v>1</v>
-      </c>
-      <c r="K23" s="37">
+      <c r="D23" s="38">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
+      <c r="G23" s="38">
+        <v>1</v>
+      </c>
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="38">
+        <v>1</v>
+      </c>
+      <c r="J23" s="38">
+        <v>1</v>
+      </c>
+      <c r="K23" s="38">
         <v>1</v>
       </c>
       <c r="O23" s="20"/>
@@ -2481,19 +2527,19 @@
       <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="23"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
@@ -2505,35 +2551,35 @@
       <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="47">
+      <c r="A25" s="46">
         <v>43201</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="38">
-        <v>1</v>
-      </c>
-      <c r="E25" s="38">
-        <v>1</v>
-      </c>
-      <c r="F25" s="38">
-        <v>1</v>
-      </c>
-      <c r="G25" s="38">
-        <v>1</v>
-      </c>
-      <c r="H25" s="38">
-        <v>1</v>
-      </c>
-      <c r="I25" s="38">
-        <v>1</v>
-      </c>
-      <c r="J25" s="38">
-        <v>1</v>
-      </c>
-      <c r="K25" s="38">
+      <c r="D25" s="39">
+        <v>1</v>
+      </c>
+      <c r="E25" s="39">
+        <v>1</v>
+      </c>
+      <c r="F25" s="39">
+        <v>1</v>
+      </c>
+      <c r="G25" s="39">
+        <v>1</v>
+      </c>
+      <c r="H25" s="39">
+        <v>1</v>
+      </c>
+      <c r="I25" s="39">
+        <v>1</v>
+      </c>
+      <c r="J25" s="39">
+        <v>1</v>
+      </c>
+      <c r="K25" s="39">
         <v>1</v>
       </c>
       <c r="O25" s="2"/>
@@ -2547,19 +2593,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2571,35 +2617,35 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="45">
         <v>43202</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="23"/>
-      <c r="D27" s="37">
-        <v>1</v>
-      </c>
-      <c r="E27" s="37">
-        <v>1</v>
-      </c>
-      <c r="F27" s="37">
-        <v>1</v>
-      </c>
-      <c r="G27" s="37">
-        <v>1</v>
-      </c>
-      <c r="H27" s="37">
-        <v>1</v>
-      </c>
-      <c r="I27" s="37">
-        <v>1</v>
-      </c>
-      <c r="J27" s="37">
+      <c r="D27" s="38">
+        <v>1</v>
+      </c>
+      <c r="E27" s="38">
+        <v>1</v>
+      </c>
+      <c r="F27" s="38">
+        <v>1</v>
+      </c>
+      <c r="G27" s="38">
+        <v>1</v>
+      </c>
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="38">
+        <v>1</v>
+      </c>
+      <c r="J27" s="38">
         <v>0</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="38">
         <v>1</v>
       </c>
       <c r="O27" s="20"/>
@@ -2613,19 +2659,19 @@
       <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="O28" s="20"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
@@ -2637,35 +2683,35 @@
       <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="47">
+      <c r="A29" s="46">
         <v>43203</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="43">
+      <c r="D29" s="44">
         <v>0</v>
       </c>
-      <c r="E29" s="38">
-        <v>1</v>
-      </c>
-      <c r="F29" s="38">
-        <v>1</v>
-      </c>
-      <c r="G29" s="38">
-        <v>1</v>
-      </c>
-      <c r="H29" s="38">
-        <v>1</v>
-      </c>
-      <c r="I29" s="38">
-        <v>1</v>
-      </c>
-      <c r="J29" s="43">
+      <c r="E29" s="39">
+        <v>1</v>
+      </c>
+      <c r="F29" s="39">
+        <v>1</v>
+      </c>
+      <c r="G29" s="39">
+        <v>1</v>
+      </c>
+      <c r="H29" s="39">
+        <v>1</v>
+      </c>
+      <c r="I29" s="39">
+        <v>1</v>
+      </c>
+      <c r="J29" s="44">
         <v>0</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="39">
         <v>1</v>
       </c>
       <c r="O29" s="2"/>
@@ -2679,19 +2725,19 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="38"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="39"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2703,35 +2749,35 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="45">
         <v>43204</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="37">
+      <c r="D31" s="38">
         <v>0</v>
       </c>
-      <c r="E31" s="37">
-        <v>1</v>
-      </c>
-      <c r="F31" s="37">
-        <v>1</v>
-      </c>
-      <c r="G31" s="37">
-        <v>1</v>
-      </c>
-      <c r="H31" s="37">
-        <v>1</v>
-      </c>
-      <c r="I31" s="37">
-        <v>1</v>
-      </c>
-      <c r="J31" s="37">
+      <c r="E31" s="38">
+        <v>1</v>
+      </c>
+      <c r="F31" s="38">
+        <v>1</v>
+      </c>
+      <c r="G31" s="38">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38">
+        <v>1</v>
+      </c>
+      <c r="I31" s="38">
+        <v>1</v>
+      </c>
+      <c r="J31" s="38">
         <v>0</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="38">
         <v>1</v>
       </c>
       <c r="O31" s="20"/>
@@ -2745,19 +2791,19 @@
       <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
@@ -2769,35 +2815,35 @@
       <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="47">
+      <c r="A33" s="46">
         <v>43205</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="38">
-        <v>1</v>
-      </c>
-      <c r="E33" s="39">
-        <v>1</v>
-      </c>
-      <c r="F33" s="39">
-        <v>1</v>
-      </c>
-      <c r="G33" s="39">
-        <v>1</v>
-      </c>
-      <c r="H33" s="39">
-        <v>1</v>
-      </c>
-      <c r="I33" s="39">
-        <v>1</v>
-      </c>
-      <c r="J33" s="41">
+      <c r="D33" s="39">
+        <v>1</v>
+      </c>
+      <c r="E33" s="40">
+        <v>1</v>
+      </c>
+      <c r="F33" s="40">
+        <v>1</v>
+      </c>
+      <c r="G33" s="40">
+        <v>1</v>
+      </c>
+      <c r="H33" s="40">
+        <v>1</v>
+      </c>
+      <c r="I33" s="40">
+        <v>1</v>
+      </c>
+      <c r="J33" s="42">
         <v>0</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="40">
         <v>1</v>
       </c>
       <c r="O33" s="2"/>
@@ -2811,19 +2857,19 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="41"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -2835,35 +2881,35 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="45">
         <v>43206</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="37">
-        <v>1</v>
-      </c>
-      <c r="E35" s="37">
-        <v>1</v>
-      </c>
-      <c r="F35" s="37">
-        <v>1</v>
-      </c>
-      <c r="G35" s="37">
-        <v>1</v>
-      </c>
-      <c r="H35" s="37">
-        <v>1</v>
-      </c>
-      <c r="I35" s="37">
-        <v>1</v>
-      </c>
-      <c r="J35" s="37">
+      <c r="D35" s="38">
+        <v>1</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1</v>
+      </c>
+      <c r="F35" s="38">
+        <v>1</v>
+      </c>
+      <c r="G35" s="38">
+        <v>1</v>
+      </c>
+      <c r="H35" s="38">
+        <v>1</v>
+      </c>
+      <c r="I35" s="38">
+        <v>1</v>
+      </c>
+      <c r="J35" s="38">
         <v>0</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="38">
         <v>1</v>
       </c>
       <c r="O35" s="20"/>
@@ -2877,19 +2923,19 @@
       <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
       <c r="O36" s="20"/>
       <c r="P36" s="20"/>
       <c r="Q36" s="20"/>
@@ -2901,35 +2947,35 @@
       <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="47">
+      <c r="A37" s="46">
         <v>43207</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="38">
-        <v>1</v>
-      </c>
-      <c r="E37" s="39">
-        <v>1</v>
-      </c>
-      <c r="F37" s="39">
-        <v>1</v>
-      </c>
-      <c r="G37" s="39">
-        <v>1</v>
-      </c>
-      <c r="H37" s="39">
-        <v>1</v>
-      </c>
-      <c r="I37" s="39">
-        <v>1</v>
-      </c>
-      <c r="J37" s="41">
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
+      <c r="E37" s="40">
+        <v>1</v>
+      </c>
+      <c r="F37" s="40">
+        <v>1</v>
+      </c>
+      <c r="G37" s="40">
+        <v>1</v>
+      </c>
+      <c r="H37" s="40">
+        <v>1</v>
+      </c>
+      <c r="I37" s="40">
+        <v>1</v>
+      </c>
+      <c r="J37" s="42">
         <v>0</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="40">
         <v>1</v>
       </c>
       <c r="O37" s="2"/>
@@ -2943,19 +2989,19 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="40"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="41"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2967,35 +3013,35 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="45">
         <v>43208</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="23"/>
-      <c r="D39" s="37">
-        <v>1</v>
-      </c>
-      <c r="E39" s="37">
-        <v>1</v>
-      </c>
-      <c r="F39" s="37">
-        <v>1</v>
-      </c>
-      <c r="G39" s="37">
-        <v>1</v>
-      </c>
-      <c r="H39" s="37">
-        <v>1</v>
-      </c>
-      <c r="I39" s="37">
-        <v>1</v>
-      </c>
-      <c r="J39" s="37">
+      <c r="D39" s="38">
+        <v>1</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1</v>
+      </c>
+      <c r="F39" s="38">
+        <v>1</v>
+      </c>
+      <c r="G39" s="38">
+        <v>1</v>
+      </c>
+      <c r="H39" s="38">
+        <v>1</v>
+      </c>
+      <c r="I39" s="38">
+        <v>1</v>
+      </c>
+      <c r="J39" s="38">
         <v>0</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="38">
         <v>1</v>
       </c>
       <c r="O39" s="20"/>
@@ -3009,19 +3055,19 @@
       <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="23"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
       <c r="O40" s="20"/>
       <c r="P40" s="20"/>
       <c r="Q40" s="20"/>
@@ -3033,32 +3079,32 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="47">
+      <c r="A41" s="46">
         <v>43209</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="38">
+      <c r="D41" s="39">
         <v>0</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="39">
         <v>0</v>
       </c>
       <c r="F41" s="33">
         <v>0.5</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="39">
         <v>0</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="39">
         <v>0</v>
       </c>
       <c r="I41" s="35">
         <v>0.5</v>
       </c>
-      <c r="J41" s="38">
+      <c r="J41" s="39">
         <v>0</v>
       </c>
       <c r="K41" s="35">
@@ -3075,22 +3121,22 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="33">
         <v>0</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="35">
         <v>0</v>
       </c>
-      <c r="J42" s="38"/>
+      <c r="J42" s="39"/>
       <c r="K42" s="35">
         <v>0</v>
       </c>
@@ -3105,35 +3151,35 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="45">
         <v>43210</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="23"/>
-      <c r="D43" s="37">
-        <v>1</v>
-      </c>
-      <c r="E43" s="37">
-        <v>1</v>
-      </c>
-      <c r="F43" s="37">
-        <v>1</v>
-      </c>
-      <c r="G43" s="37">
-        <v>1</v>
-      </c>
-      <c r="H43" s="37">
-        <v>1</v>
-      </c>
-      <c r="I43" s="37">
-        <v>1</v>
-      </c>
-      <c r="J43" s="37">
+      <c r="D43" s="38">
+        <v>1</v>
+      </c>
+      <c r="E43" s="38">
+        <v>1</v>
+      </c>
+      <c r="F43" s="38">
+        <v>1</v>
+      </c>
+      <c r="G43" s="38">
+        <v>1</v>
+      </c>
+      <c r="H43" s="38">
+        <v>1</v>
+      </c>
+      <c r="I43" s="38">
+        <v>1</v>
+      </c>
+      <c r="J43" s="38">
         <v>0</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="38">
         <v>1</v>
       </c>
       <c r="O43" s="20"/>
@@ -3147,19 +3193,19 @@
       <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="46"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
       <c r="O44" s="20"/>
       <c r="P44" s="20"/>
       <c r="Q44" s="20"/>
@@ -3171,35 +3217,35 @@
       <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="47">
+      <c r="A45" s="46">
         <v>43211</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="38">
-        <v>1</v>
-      </c>
-      <c r="E45" s="39">
-        <v>1</v>
-      </c>
-      <c r="F45" s="39">
-        <v>1</v>
-      </c>
-      <c r="G45" s="39">
-        <v>1</v>
-      </c>
-      <c r="H45" s="39">
-        <v>1</v>
-      </c>
-      <c r="I45" s="39">
-        <v>1</v>
-      </c>
-      <c r="J45" s="41">
+      <c r="D45" s="39">
+        <v>1</v>
+      </c>
+      <c r="E45" s="40">
+        <v>1</v>
+      </c>
+      <c r="F45" s="40">
+        <v>1</v>
+      </c>
+      <c r="G45" s="40">
+        <v>1</v>
+      </c>
+      <c r="H45" s="40">
+        <v>1</v>
+      </c>
+      <c r="I45" s="40">
+        <v>1</v>
+      </c>
+      <c r="J45" s="42">
         <v>0</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K45" s="40">
         <v>1</v>
       </c>
       <c r="O45" s="2"/>
@@ -3213,19 +3259,19 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="40"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="41"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -3237,35 +3283,35 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="45">
         <v>43212</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="23"/>
-      <c r="D47" s="37">
-        <v>1</v>
-      </c>
-      <c r="E47" s="37">
-        <v>1</v>
-      </c>
-      <c r="F47" s="37">
-        <v>1</v>
-      </c>
-      <c r="G47" s="37">
-        <v>1</v>
-      </c>
-      <c r="H47" s="37">
-        <v>1</v>
-      </c>
-      <c r="I47" s="37">
-        <v>1</v>
-      </c>
-      <c r="J47" s="37">
+      <c r="D47" s="38">
+        <v>1</v>
+      </c>
+      <c r="E47" s="38">
+        <v>1</v>
+      </c>
+      <c r="F47" s="38">
+        <v>1</v>
+      </c>
+      <c r="G47" s="38">
+        <v>1</v>
+      </c>
+      <c r="H47" s="38">
+        <v>1</v>
+      </c>
+      <c r="I47" s="38">
+        <v>1</v>
+      </c>
+      <c r="J47" s="38">
         <v>0</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="38">
         <v>1</v>
       </c>
       <c r="O47" s="20"/>
@@ -3279,19 +3325,19 @@
       <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="23"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
       <c r="O48" s="20"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
@@ -3303,21 +3349,37 @@
       <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="47">
+      <c r="A49" s="46">
         <v>43213</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="D49" s="39">
+        <v>0</v>
+      </c>
+      <c r="E49" s="39">
+        <v>0</v>
+      </c>
+      <c r="F49" s="39">
+        <v>0</v>
+      </c>
+      <c r="G49" s="39">
+        <v>0</v>
+      </c>
+      <c r="H49" s="39">
+        <v>0</v>
+      </c>
+      <c r="I49" s="39">
+        <v>0</v>
+      </c>
+      <c r="J49" s="39">
+        <v>0</v>
+      </c>
+      <c r="K49" s="39">
+        <v>0</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3329,19 +3391,19 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3353,35 +3415,35 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="45">
         <v>43214</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="37">
+      <c r="D51" s="38">
         <v>0</v>
       </c>
-      <c r="E51" s="37">
-        <v>1</v>
-      </c>
-      <c r="F51" s="37">
-        <v>1</v>
-      </c>
-      <c r="G51" s="37">
-        <v>1</v>
-      </c>
-      <c r="H51" s="37">
-        <v>1</v>
-      </c>
-      <c r="I51" s="37">
+      <c r="E51" s="38">
+        <v>1</v>
+      </c>
+      <c r="F51" s="38">
+        <v>1</v>
+      </c>
+      <c r="G51" s="38">
+        <v>1</v>
+      </c>
+      <c r="H51" s="38">
+        <v>1</v>
+      </c>
+      <c r="I51" s="38">
         <v>0</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="38">
         <v>0</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="38">
         <v>1</v>
       </c>
       <c r="O51" s="20"/>
@@ -3395,19 +3457,19 @@
       <c r="W51" s="20"/>
     </row>
     <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="23"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
       <c r="O52" s="20"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="20"/>
@@ -3419,21 +3481,37 @@
       <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="47">
+      <c r="A53" s="46">
         <v>43215</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="D53" s="39">
+        <v>0</v>
+      </c>
+      <c r="E53" s="39">
+        <v>0</v>
+      </c>
+      <c r="F53" s="67">
+        <v>1</v>
+      </c>
+      <c r="G53" s="67">
+        <v>1</v>
+      </c>
+      <c r="H53" s="39">
+        <v>0</v>
+      </c>
+      <c r="I53" s="58">
+        <v>1</v>
+      </c>
+      <c r="J53" s="39">
+        <v>0</v>
+      </c>
+      <c r="K53" s="58">
+        <v>1</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3445,19 +3523,19 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="60"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3469,21 +3547,37 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="45">
         <v>43216</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
+      <c r="D55" s="38">
+        <v>0</v>
+      </c>
+      <c r="E55" s="38">
+        <v>0</v>
+      </c>
+      <c r="F55" s="69">
+        <v>1</v>
+      </c>
+      <c r="G55" s="69">
+        <v>1</v>
+      </c>
+      <c r="H55" s="69">
+        <v>1</v>
+      </c>
+      <c r="I55" s="69">
+        <v>1</v>
+      </c>
+      <c r="J55" s="38">
+        <v>0</v>
+      </c>
+      <c r="K55" s="69">
+        <v>1</v>
+      </c>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="20"/>
@@ -3495,19 +3589,19 @@
       <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="70"/>
       <c r="O56" s="20"/>
       <c r="P56" s="20"/>
       <c r="Q56" s="20"/>
@@ -3519,7 +3613,7 @@
       <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="47">
+      <c r="A57" s="46">
         <v>43217</v>
       </c>
       <c r="B57" s="24" t="s">
@@ -3545,7 +3639,7 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="24" t="s">
         <v>17</v>
       </c>
@@ -3569,7 +3663,7 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="46">
+      <c r="A59" s="45">
         <v>43218</v>
       </c>
       <c r="B59" s="23" t="s">
@@ -3595,7 +3689,7 @@
       <c r="W59" s="20"/>
     </row>
     <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="23" t="s">
         <v>17</v>
       </c>
@@ -3619,7 +3713,7 @@
       <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="47">
+      <c r="A61" s="46">
         <v>43219</v>
       </c>
       <c r="B61" s="24" t="s">
@@ -3645,7 +3739,7 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="47"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="24" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3763,7 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="46">
+      <c r="A63" s="45">
         <v>43220</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3695,7 +3789,7 @@
       <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="23" t="s">
         <v>17</v>
       </c>
@@ -5446,66 +5540,132 @@
       <c r="W150" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="201">
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
+  <mergeCells count="226">
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A59:A60"/>
@@ -5530,91 +5690,29 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:K30"/>
     <mergeCell ref="D29:D30"/>
@@ -5624,6 +5722,43 @@
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="F47:F48"/>
@@ -5632,22 +5767,6 @@
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="K47:K48"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5659,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5677,18 +5796,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -5725,7 +5844,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="55">
+      <c r="E3" s="53">
         <v>43191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -5745,7 +5864,7 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="55"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5765,7 +5884,7 @@
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="55"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
@@ -5803,7 +5922,7 @@
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="56">
+      <c r="E7" s="54">
         <v>43193</v>
       </c>
       <c r="F7" s="30" t="s">
@@ -5825,7 +5944,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="57"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="30" t="s">
         <v>45</v>
       </c>
@@ -5843,7 +5962,7 @@
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="58">
+      <c r="E9" s="56">
         <v>43196</v>
       </c>
       <c r="F9" s="31" t="s">
@@ -5863,7 +5982,7 @@
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="31" t="s">
         <v>52</v>
       </c>
@@ -5880,10 +5999,10 @@
         <v>71</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="51">
+      <c r="E11" s="49">
         <v>43197</v>
       </c>
       <c r="F11" s="30" t="s">
@@ -5903,7 +6022,7 @@
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="53"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="30" t="s">
         <v>55</v>
       </c>
@@ -5921,7 +6040,7 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="52"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="30" t="s">
         <v>56</v>
       </c>
@@ -5943,7 +6062,7 @@
         <v>43199</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="31">
         <v>350</v>
@@ -5963,7 +6082,7 @@
         <v>43200</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="30">
         <v>95</v>
@@ -5978,14 +6097,14 @@
         <v>360</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="32">
         <v>43201</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="31">
         <v>45</v>
@@ -5999,11 +6118,11 @@
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="51">
+      <c r="E17" s="49">
         <v>43205</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="30">
         <v>240</v>
@@ -6017,9 +6136,9 @@
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="52"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="30">
         <v>100</v>
@@ -6033,11 +6152,11 @@
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="48" t="s">
-        <v>71</v>
+      <c r="E19" s="58" t="s">
+        <v>70</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="31">
         <v>280</v>
@@ -6051,9 +6170,9 @@
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="49"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="31">
         <v>39</v>
@@ -6068,12 +6187,12 @@
         <v>11</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="31">
         <v>70</v>
@@ -6089,9 +6208,9 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="50"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="31">
         <v>30</v>
@@ -6109,7 +6228,7 @@
         <v>43211</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="34">
         <v>70</v>
@@ -6127,7 +6246,7 @@
         <v>43214</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="31">
         <v>65</v>
@@ -6141,10 +6260,16 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="E25" s="54">
+        <v>43216</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="37">
+        <v>85</v>
+      </c>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
@@ -6154,13 +6279,17 @@
         <v>34</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="37">
+        <v>95</v>
+      </c>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
@@ -6310,7 +6439,9 @@
       <c r="A73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:C1"/>
@@ -6318,7 +6449,6 @@
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E19:E22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6333,7 +6463,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6350,17 +6480,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="E1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -6759,17 +6889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -6807,7 +6937,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="65" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -6832,7 +6962,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
@@ -6855,7 +6985,7 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -6880,7 +7010,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="17" t="s">
         <v>37</v>
       </c>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -222,22 +222,6 @@
     <t>时间段</t>
     <rPh sb="0" eb="1">
       <t>shi'jian'duan</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年4月份员工工时</t>
-    <rPh sb="4" eb="5">
-      <t>nian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yue'fen</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yaun'gong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>gong'shi</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -781,6 +765,10 @@
     <t>1(驾驶+车)(妹夫顶替)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>张行宽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1025,7 +1013,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,18 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1117,9 +1093,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,16 +1113,27 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1145,22 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,28 +1175,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1216,21 +1200,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,10 +1702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W150"/>
+  <dimension ref="A1:W149"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,87 +1715,101 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-    </row>
-    <row r="2" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="K1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45">
+        <v>43190</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="41">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41">
+        <v>1</v>
+      </c>
+      <c r="F2" s="41">
+        <v>1</v>
+      </c>
+      <c r="G2" s="41">
+        <v>1</v>
+      </c>
+      <c r="H2" s="41">
+        <v>1</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="38"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
-        <v>43190</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="38">
-        <v>0</v>
-      </c>
-      <c r="D3" s="38">
-        <v>1</v>
-      </c>
-      <c r="E3" s="38">
-        <v>1</v>
-      </c>
-      <c r="F3" s="38">
-        <v>1</v>
-      </c>
-      <c r="G3" s="38">
-        <v>1</v>
-      </c>
-      <c r="H3" s="38">
-        <v>1</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="38"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -1836,58 +1820,66 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="46">
+        <v>43191</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="39"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
-        <v>43191</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="47">
+      <c r="C5" s="42"/>
+      <c r="D5" s="35">
         <v>0</v>
       </c>
-      <c r="D5" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="47">
-        <v>1</v>
-      </c>
-      <c r="H5" s="47">
+      <c r="E5" s="35">
         <v>0</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="39"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1898,64 +1890,66 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45">
+        <v>43192</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+      <c r="H6" s="41">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="38"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
-        <v>43192</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38">
-        <v>1</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="38"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -1966,68 +1960,64 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="23" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="46">
+        <v>43193</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <v>1</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1</v>
+      </c>
+      <c r="F8" s="40">
+        <v>1</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="39"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
-        <v>43193</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="44">
-        <v>0</v>
-      </c>
-      <c r="D9" s="39">
-        <v>1</v>
-      </c>
-      <c r="E9" s="39">
-        <v>1</v>
-      </c>
-      <c r="F9" s="39">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1</v>
-      </c>
-      <c r="H9" s="39">
-        <v>1</v>
-      </c>
-      <c r="I9" s="39">
-        <v>1</v>
-      </c>
-      <c r="J9" s="39">
-        <v>1</v>
-      </c>
-      <c r="K9" s="26"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="39"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2038,62 +2028,64 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45">
+        <v>43194</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41">
+        <v>1</v>
+      </c>
+      <c r="G10" s="41">
+        <v>1</v>
+      </c>
+      <c r="H10" s="41">
+        <v>1</v>
+      </c>
+      <c r="I10" s="41">
+        <v>1</v>
+      </c>
+      <c r="J10" s="41">
+        <v>1</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="38"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+    </row>
+    <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="26"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
-        <v>43194</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="38">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="38">
-        <v>1</v>
-      </c>
-      <c r="H11" s="38">
-        <v>1</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-      <c r="K11" s="25"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="38"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
@@ -2104,62 +2096,80 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
     </row>
-    <row r="12" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="46">
+        <v>43195</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="39"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="46"/>
+      <c r="B13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="25"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
-        <v>43195</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="26"/>
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="L13" s="39"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2170,80 +2180,64 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45">
+        <v>43196</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="41">
+        <v>1</v>
+      </c>
+      <c r="E14" s="41">
+        <v>1</v>
+      </c>
+      <c r="F14" s="41">
+        <v>1</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1</v>
+      </c>
+      <c r="I14" s="41">
+        <v>1</v>
+      </c>
+      <c r="J14" s="41">
+        <v>1</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="L14" s="38"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+    </row>
+    <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24">
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
-        <v>43196</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="38">
-        <v>0</v>
-      </c>
-      <c r="D15" s="38">
-        <v>1</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1</v>
-      </c>
-      <c r="K15" s="38">
-        <v>0</v>
-      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="38"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -2254,64 +2248,68 @@
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
     </row>
-    <row r="16" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="46">
+        <v>43197</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1</v>
+      </c>
+      <c r="G16" s="40">
+        <v>1</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0</v>
+      </c>
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
+        <v>1</v>
+      </c>
+      <c r="K16" s="37">
+        <v>0</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="46"/>
+      <c r="B17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
-        <v>43197</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="47">
-        <v>0</v>
-      </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="39">
-        <v>1</v>
-      </c>
-      <c r="G17" s="39">
-        <v>1</v>
-      </c>
-      <c r="H17" s="47">
-        <v>0</v>
-      </c>
-      <c r="I17" s="39">
-        <v>1</v>
-      </c>
-      <c r="J17" s="39">
-        <v>1</v>
-      </c>
-      <c r="K17" s="26">
-        <v>0</v>
-      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="39"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2322,66 +2320,66 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="45">
+        <v>43198</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1</v>
+      </c>
+      <c r="E18" s="41">
+        <v>1</v>
+      </c>
+      <c r="F18" s="41">
+        <v>1</v>
+      </c>
+      <c r="G18" s="41">
+        <v>1</v>
+      </c>
+      <c r="H18" s="41">
+        <v>1</v>
+      </c>
+      <c r="I18" s="41">
+        <v>1</v>
+      </c>
+      <c r="J18" s="41">
+        <v>1</v>
+      </c>
+      <c r="K18" s="41">
+        <v>1</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+    </row>
+    <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
-        <v>43198</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="38">
-        <v>1</v>
-      </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1</v>
-      </c>
-      <c r="G19" s="38">
-        <v>1</v>
-      </c>
-      <c r="H19" s="38">
-        <v>1</v>
-      </c>
-      <c r="I19" s="38">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1</v>
-      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="38"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
@@ -2392,64 +2390,66 @@
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
     </row>
-    <row r="20" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
+        <v>43199</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="40">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="G20" s="40">
+        <v>1</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="40">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40">
+        <v>1</v>
+      </c>
+      <c r="K20" s="40">
+        <v>1</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="46">
-        <v>43199</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="39">
-        <v>1</v>
-      </c>
-      <c r="E21" s="39">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39">
-        <v>1</v>
-      </c>
-      <c r="G21" s="39">
-        <v>1</v>
-      </c>
-      <c r="H21" s="39">
-        <v>1</v>
-      </c>
-      <c r="I21" s="39">
-        <v>1</v>
-      </c>
-      <c r="J21" s="39">
-        <v>1</v>
-      </c>
-      <c r="K21" s="39">
-        <v>1</v>
-      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="39"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2460,62 +2460,64 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="45">
+        <v>43200</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="41">
+        <v>1</v>
+      </c>
+      <c r="E22" s="41">
+        <v>1</v>
+      </c>
+      <c r="F22" s="41">
+        <v>1</v>
+      </c>
+      <c r="G22" s="41">
+        <v>1</v>
+      </c>
+      <c r="H22" s="41">
+        <v>1</v>
+      </c>
+      <c r="I22" s="41">
+        <v>1</v>
+      </c>
+      <c r="J22" s="41">
+        <v>1</v>
+      </c>
+      <c r="K22" s="41">
+        <v>1</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+    </row>
+    <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
-        <v>43200</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="38">
-        <v>1</v>
-      </c>
-      <c r="E23" s="38">
-        <v>1</v>
-      </c>
-      <c r="F23" s="38">
-        <v>1</v>
-      </c>
-      <c r="G23" s="38">
-        <v>1</v>
-      </c>
-      <c r="H23" s="38">
-        <v>1</v>
-      </c>
-      <c r="I23" s="38">
-        <v>1</v>
-      </c>
-      <c r="J23" s="38">
-        <v>1</v>
-      </c>
-      <c r="K23" s="38">
-        <v>1</v>
-      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="38"/>
       <c r="O23" s="20"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
@@ -2526,62 +2528,64 @@
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
     </row>
-    <row r="24" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="46">
+        <v>43201</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="40">
+        <v>1</v>
+      </c>
+      <c r="E24" s="40">
+        <v>1</v>
+      </c>
+      <c r="F24" s="40">
+        <v>1</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="40">
+        <v>1</v>
+      </c>
+      <c r="I24" s="40">
+        <v>1</v>
+      </c>
+      <c r="J24" s="40">
+        <v>1</v>
+      </c>
+      <c r="K24" s="40">
+        <v>1</v>
+      </c>
+      <c r="L24" s="39"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
-        <v>43201</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="39">
-        <v>1</v>
-      </c>
-      <c r="E25" s="39">
-        <v>1</v>
-      </c>
-      <c r="F25" s="39">
-        <v>1</v>
-      </c>
-      <c r="G25" s="39">
-        <v>1</v>
-      </c>
-      <c r="H25" s="39">
-        <v>1</v>
-      </c>
-      <c r="I25" s="39">
-        <v>1</v>
-      </c>
-      <c r="J25" s="39">
-        <v>1</v>
-      </c>
-      <c r="K25" s="39">
-        <v>1</v>
-      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="39"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2592,62 +2596,64 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="45">
+        <v>43202</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="41">
+        <v>1</v>
+      </c>
+      <c r="G26" s="41">
+        <v>1</v>
+      </c>
+      <c r="H26" s="41">
+        <v>1</v>
+      </c>
+      <c r="I26" s="41">
+        <v>1</v>
+      </c>
+      <c r="J26" s="41">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>1</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+    </row>
+    <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
+      <c r="B27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-    </row>
-    <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45">
-        <v>43202</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="38">
-        <v>1</v>
-      </c>
-      <c r="E27" s="38">
-        <v>1</v>
-      </c>
-      <c r="F27" s="38">
-        <v>1</v>
-      </c>
-      <c r="G27" s="38">
-        <v>1</v>
-      </c>
-      <c r="H27" s="38">
-        <v>1</v>
-      </c>
-      <c r="I27" s="38">
-        <v>1</v>
-      </c>
-      <c r="J27" s="38">
-        <v>0</v>
-      </c>
-      <c r="K27" s="38">
-        <v>1</v>
-      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="38"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
@@ -2658,62 +2664,64 @@
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
     </row>
-    <row r="28" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="23" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="46">
+        <v>43203</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="44">
+        <v>0</v>
+      </c>
+      <c r="E28" s="40">
+        <v>1</v>
+      </c>
+      <c r="F28" s="40">
+        <v>1</v>
+      </c>
+      <c r="G28" s="40">
+        <v>1</v>
+      </c>
+      <c r="H28" s="40">
+        <v>1</v>
+      </c>
+      <c r="I28" s="40">
+        <v>1</v>
+      </c>
+      <c r="J28" s="44">
+        <v>0</v>
+      </c>
+      <c r="K28" s="40">
+        <v>1</v>
+      </c>
+      <c r="L28" s="39"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
-        <v>43203</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="44">
-        <v>0</v>
-      </c>
-      <c r="E29" s="39">
-        <v>1</v>
-      </c>
-      <c r="F29" s="39">
-        <v>1</v>
-      </c>
-      <c r="G29" s="39">
-        <v>1</v>
-      </c>
-      <c r="H29" s="39">
-        <v>1</v>
-      </c>
-      <c r="I29" s="39">
-        <v>1</v>
-      </c>
-      <c r="J29" s="44">
-        <v>0</v>
-      </c>
-      <c r="K29" s="39">
-        <v>1</v>
-      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="39"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2724,62 +2732,64 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="45">
+        <v>43204</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="41">
+        <v>0</v>
+      </c>
+      <c r="E30" s="41">
+        <v>1</v>
+      </c>
+      <c r="F30" s="41">
+        <v>1</v>
+      </c>
+      <c r="G30" s="41">
+        <v>1</v>
+      </c>
+      <c r="H30" s="41">
+        <v>1</v>
+      </c>
+      <c r="I30" s="41">
+        <v>1</v>
+      </c>
+      <c r="J30" s="41">
+        <v>0</v>
+      </c>
+      <c r="K30" s="41">
+        <v>1</v>
+      </c>
+      <c r="L30" s="38"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+    </row>
+    <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="39"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-    </row>
-    <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="45">
-        <v>43204</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-      <c r="E31" s="38">
-        <v>1</v>
-      </c>
-      <c r="F31" s="38">
-        <v>1</v>
-      </c>
-      <c r="G31" s="38">
-        <v>1</v>
-      </c>
-      <c r="H31" s="38">
-        <v>1</v>
-      </c>
-      <c r="I31" s="38">
-        <v>1</v>
-      </c>
-      <c r="J31" s="38">
-        <v>0</v>
-      </c>
-      <c r="K31" s="38">
-        <v>1</v>
-      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="38"/>
       <c r="O31" s="20"/>
       <c r="P31" s="20"/>
       <c r="Q31" s="20"/>
@@ -2790,62 +2800,64 @@
       <c r="V31" s="20"/>
       <c r="W31" s="20"/>
     </row>
-    <row r="32" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="46">
+        <v>43205</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="40">
+        <v>1</v>
+      </c>
+      <c r="E32" s="40">
+        <v>1</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="40">
+        <v>1</v>
+      </c>
+      <c r="I32" s="40">
+        <v>1</v>
+      </c>
+      <c r="J32" s="44">
+        <v>0</v>
+      </c>
+      <c r="K32" s="40">
+        <v>1</v>
+      </c>
+      <c r="L32" s="39"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
-        <v>43205</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="39">
-        <v>1</v>
-      </c>
-      <c r="E33" s="40">
-        <v>1</v>
-      </c>
-      <c r="F33" s="40">
-        <v>1</v>
-      </c>
-      <c r="G33" s="40">
-        <v>1</v>
-      </c>
-      <c r="H33" s="40">
-        <v>1</v>
-      </c>
-      <c r="I33" s="40">
-        <v>1</v>
-      </c>
-      <c r="J33" s="42">
-        <v>0</v>
-      </c>
-      <c r="K33" s="40">
-        <v>1</v>
-      </c>
+      <c r="C33" s="35"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="39"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2856,62 +2868,64 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="24" t="s">
+    <row r="34" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="45">
+        <v>43206</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="41">
+        <v>1</v>
+      </c>
+      <c r="E34" s="41">
+        <v>1</v>
+      </c>
+      <c r="F34" s="41">
+        <v>1</v>
+      </c>
+      <c r="G34" s="41">
+        <v>1</v>
+      </c>
+      <c r="H34" s="41">
+        <v>1</v>
+      </c>
+      <c r="I34" s="41">
+        <v>1</v>
+      </c>
+      <c r="J34" s="41">
+        <v>0</v>
+      </c>
+      <c r="K34" s="41">
+        <v>1</v>
+      </c>
+      <c r="L34" s="38"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+    </row>
+    <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="41"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="45">
-        <v>43206</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="38">
-        <v>1</v>
-      </c>
-      <c r="E35" s="38">
-        <v>1</v>
-      </c>
-      <c r="F35" s="38">
-        <v>1</v>
-      </c>
-      <c r="G35" s="38">
-        <v>1</v>
-      </c>
-      <c r="H35" s="38">
-        <v>1</v>
-      </c>
-      <c r="I35" s="38">
-        <v>1</v>
-      </c>
-      <c r="J35" s="38">
-        <v>0</v>
-      </c>
-      <c r="K35" s="38">
-        <v>1</v>
-      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="38"/>
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
@@ -2922,62 +2936,64 @@
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
     </row>
-    <row r="36" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="23" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="46">
+        <v>43207</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="40">
+        <v>1</v>
+      </c>
+      <c r="E36" s="40">
+        <v>1</v>
+      </c>
+      <c r="F36" s="40">
+        <v>1</v>
+      </c>
+      <c r="G36" s="40">
+        <v>1</v>
+      </c>
+      <c r="H36" s="40">
+        <v>1</v>
+      </c>
+      <c r="I36" s="40">
+        <v>1</v>
+      </c>
+      <c r="J36" s="44">
+        <v>0</v>
+      </c>
+      <c r="K36" s="40">
+        <v>1</v>
+      </c>
+      <c r="L36" s="39"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
-        <v>43207</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="39">
-        <v>1</v>
-      </c>
-      <c r="E37" s="40">
-        <v>1</v>
-      </c>
-      <c r="F37" s="40">
-        <v>1</v>
-      </c>
-      <c r="G37" s="40">
-        <v>1</v>
-      </c>
-      <c r="H37" s="40">
-        <v>1</v>
-      </c>
-      <c r="I37" s="40">
-        <v>1</v>
-      </c>
-      <c r="J37" s="42">
-        <v>0</v>
-      </c>
-      <c r="K37" s="40">
-        <v>1</v>
-      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="39"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2988,62 +3004,64 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="B38" s="24" t="s">
+    <row r="38" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="45">
+        <v>43208</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="41">
+        <v>1</v>
+      </c>
+      <c r="E38" s="41">
+        <v>1</v>
+      </c>
+      <c r="F38" s="41">
+        <v>1</v>
+      </c>
+      <c r="G38" s="41">
+        <v>1</v>
+      </c>
+      <c r="H38" s="41">
+        <v>1</v>
+      </c>
+      <c r="I38" s="41">
+        <v>1</v>
+      </c>
+      <c r="J38" s="41">
+        <v>0</v>
+      </c>
+      <c r="K38" s="41">
+        <v>1</v>
+      </c>
+      <c r="L38" s="38"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+    </row>
+    <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="41"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45">
-        <v>43208</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="38">
-        <v>1</v>
-      </c>
-      <c r="E39" s="38">
-        <v>1</v>
-      </c>
-      <c r="F39" s="38">
-        <v>1</v>
-      </c>
-      <c r="G39" s="38">
-        <v>1</v>
-      </c>
-      <c r="H39" s="38">
-        <v>1</v>
-      </c>
-      <c r="I39" s="38">
-        <v>1</v>
-      </c>
-      <c r="J39" s="38">
-        <v>0</v>
-      </c>
-      <c r="K39" s="38">
-        <v>1</v>
-      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="38"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
       <c r="Q39" s="20"/>
@@ -3054,62 +3072,70 @@
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
     </row>
-    <row r="40" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="23" t="s">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="46">
+        <v>43209</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="39"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="46"/>
+      <c r="B41" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="46">
-        <v>43209</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="39">
+      <c r="C41" s="35"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="34">
         <v>0</v>
       </c>
-      <c r="E41" s="39">
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="30">
         <v>0</v>
       </c>
-      <c r="F41" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="39">
+      <c r="J41" s="40"/>
+      <c r="K41" s="30">
         <v>0</v>
       </c>
-      <c r="H41" s="39">
-        <v>0</v>
-      </c>
-      <c r="I41" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="39">
-        <v>0</v>
-      </c>
-      <c r="K41" s="35">
-        <v>0.5</v>
-      </c>
+      <c r="L41" s="39"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3120,68 +3146,64 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="24" t="s">
+    <row r="42" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="45">
+        <v>43210</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="41">
+        <v>1</v>
+      </c>
+      <c r="E42" s="41">
+        <v>1</v>
+      </c>
+      <c r="F42" s="41">
+        <v>1</v>
+      </c>
+      <c r="G42" s="41">
+        <v>1</v>
+      </c>
+      <c r="H42" s="41">
+        <v>1</v>
+      </c>
+      <c r="I42" s="41">
+        <v>1</v>
+      </c>
+      <c r="J42" s="41">
+        <v>0</v>
+      </c>
+      <c r="K42" s="41">
+        <v>1</v>
+      </c>
+      <c r="L42" s="38"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+    </row>
+    <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
+      <c r="B43" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="33">
-        <v>0</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="35">
-        <v>0</v>
-      </c>
-      <c r="J42" s="39"/>
-      <c r="K42" s="35">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="45">
-        <v>43210</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="38">
-        <v>1</v>
-      </c>
-      <c r="E43" s="38">
-        <v>1</v>
-      </c>
-      <c r="F43" s="38">
-        <v>1</v>
-      </c>
-      <c r="G43" s="38">
-        <v>1</v>
-      </c>
-      <c r="H43" s="38">
-        <v>1</v>
-      </c>
-      <c r="I43" s="38">
-        <v>1</v>
-      </c>
-      <c r="J43" s="38">
-        <v>0</v>
-      </c>
-      <c r="K43" s="38">
-        <v>1</v>
-      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="38"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="20"/>
@@ -3192,62 +3214,64 @@
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
     </row>
-    <row r="44" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="23" t="s">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="46">
+        <v>43211</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="40">
+        <v>1</v>
+      </c>
+      <c r="E44" s="40">
+        <v>1</v>
+      </c>
+      <c r="F44" s="40">
+        <v>1</v>
+      </c>
+      <c r="G44" s="40">
+        <v>1</v>
+      </c>
+      <c r="H44" s="40">
+        <v>1</v>
+      </c>
+      <c r="I44" s="40">
+        <v>1</v>
+      </c>
+      <c r="J44" s="44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="40">
+        <v>1</v>
+      </c>
+      <c r="L44" s="39"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="46"/>
+      <c r="B45" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="46">
-        <v>43211</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="39">
-        <v>1</v>
-      </c>
-      <c r="E45" s="40">
-        <v>1</v>
-      </c>
-      <c r="F45" s="40">
-        <v>1</v>
-      </c>
-      <c r="G45" s="40">
-        <v>1</v>
-      </c>
-      <c r="H45" s="40">
-        <v>1</v>
-      </c>
-      <c r="I45" s="40">
-        <v>1</v>
-      </c>
-      <c r="J45" s="42">
-        <v>0</v>
-      </c>
-      <c r="K45" s="40">
-        <v>1</v>
-      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="39"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3258,62 +3282,64 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="45">
+        <v>43212</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="41">
+        <v>1</v>
+      </c>
+      <c r="E46" s="41">
+        <v>1</v>
+      </c>
+      <c r="F46" s="41">
+        <v>1</v>
+      </c>
+      <c r="G46" s="41">
+        <v>1</v>
+      </c>
+      <c r="H46" s="41">
+        <v>1</v>
+      </c>
+      <c r="I46" s="41">
+        <v>1</v>
+      </c>
+      <c r="J46" s="41">
+        <v>0</v>
+      </c>
+      <c r="K46" s="41">
+        <v>1</v>
+      </c>
+      <c r="L46" s="38"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+    </row>
+    <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="41"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-    </row>
-    <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45">
-        <v>43212</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="38">
-        <v>1</v>
-      </c>
-      <c r="E47" s="38">
-        <v>1</v>
-      </c>
-      <c r="F47" s="38">
-        <v>1</v>
-      </c>
-      <c r="G47" s="38">
-        <v>1</v>
-      </c>
-      <c r="H47" s="38">
-        <v>1</v>
-      </c>
-      <c r="I47" s="38">
-        <v>1</v>
-      </c>
-      <c r="J47" s="38">
-        <v>0</v>
-      </c>
-      <c r="K47" s="38">
-        <v>1</v>
-      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="38"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="20"/>
@@ -3324,62 +3350,64 @@
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
     </row>
-    <row r="48" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="23" t="s">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" s="46">
+        <v>43213</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="40">
+        <v>0</v>
+      </c>
+      <c r="E48" s="40">
+        <v>0</v>
+      </c>
+      <c r="F48" s="40">
+        <v>0</v>
+      </c>
+      <c r="G48" s="40">
+        <v>0</v>
+      </c>
+      <c r="H48" s="40">
+        <v>0</v>
+      </c>
+      <c r="I48" s="40">
+        <v>0</v>
+      </c>
+      <c r="J48" s="40">
+        <v>0</v>
+      </c>
+      <c r="K48" s="40">
+        <v>0</v>
+      </c>
+      <c r="L48" s="39"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
-        <v>43213</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="39">
-        <v>0</v>
-      </c>
-      <c r="E49" s="39">
-        <v>0</v>
-      </c>
-      <c r="F49" s="39">
-        <v>0</v>
-      </c>
-      <c r="G49" s="39">
-        <v>0</v>
-      </c>
-      <c r="H49" s="39">
-        <v>0</v>
-      </c>
-      <c r="I49" s="39">
-        <v>0</v>
-      </c>
-      <c r="J49" s="39">
-        <v>0</v>
-      </c>
-      <c r="K49" s="39">
-        <v>0</v>
-      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="39"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3390,62 +3418,64 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="24" t="s">
+    <row r="50" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="45">
+        <v>43214</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="41">
+        <v>0</v>
+      </c>
+      <c r="E50" s="41">
+        <v>1</v>
+      </c>
+      <c r="F50" s="41">
+        <v>1</v>
+      </c>
+      <c r="G50" s="41">
+        <v>1</v>
+      </c>
+      <c r="H50" s="41">
+        <v>1</v>
+      </c>
+      <c r="I50" s="41">
+        <v>0</v>
+      </c>
+      <c r="J50" s="41">
+        <v>0</v>
+      </c>
+      <c r="K50" s="41">
+        <v>1</v>
+      </c>
+      <c r="L50" s="38"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+    </row>
+    <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
+      <c r="B51" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-    </row>
-    <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45">
-        <v>43214</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="38">
-        <v>0</v>
-      </c>
-      <c r="E51" s="38">
-        <v>1</v>
-      </c>
-      <c r="F51" s="38">
-        <v>1</v>
-      </c>
-      <c r="G51" s="38">
-        <v>1</v>
-      </c>
-      <c r="H51" s="38">
-        <v>1</v>
-      </c>
-      <c r="I51" s="38">
-        <v>0</v>
-      </c>
-      <c r="J51" s="38">
-        <v>0</v>
-      </c>
-      <c r="K51" s="38">
-        <v>1</v>
-      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="38"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
       <c r="Q51" s="20"/>
@@ -3456,62 +3486,64 @@
       <c r="V51" s="20"/>
       <c r="W51" s="20"/>
     </row>
-    <row r="52" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="23" t="s">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="46">
+        <v>43215</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="40">
+        <v>0</v>
+      </c>
+      <c r="E52" s="40">
+        <v>0</v>
+      </c>
+      <c r="F52" s="42">
+        <v>1</v>
+      </c>
+      <c r="G52" s="42">
+        <v>1</v>
+      </c>
+      <c r="H52" s="40">
+        <v>0</v>
+      </c>
+      <c r="I52" s="43">
+        <v>1</v>
+      </c>
+      <c r="J52" s="40">
+        <v>0</v>
+      </c>
+      <c r="K52" s="43">
+        <v>1</v>
+      </c>
+      <c r="L52" s="39"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
-        <v>43215</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="39">
-        <v>0</v>
-      </c>
-      <c r="E53" s="39">
-        <v>0</v>
-      </c>
-      <c r="F53" s="67">
-        <v>1</v>
-      </c>
-      <c r="G53" s="67">
-        <v>1</v>
-      </c>
-      <c r="H53" s="39">
-        <v>0</v>
-      </c>
-      <c r="I53" s="58">
-        <v>1</v>
-      </c>
-      <c r="J53" s="39">
-        <v>0</v>
-      </c>
-      <c r="K53" s="58">
-        <v>1</v>
-      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="39"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3522,62 +3554,64 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
-      <c r="B54" s="24" t="s">
+    <row r="54" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="45">
+        <v>43216</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="41">
+        <v>0</v>
+      </c>
+      <c r="E54" s="41">
+        <v>0</v>
+      </c>
+      <c r="F54" s="41">
+        <v>1</v>
+      </c>
+      <c r="G54" s="41">
+        <v>1</v>
+      </c>
+      <c r="H54" s="41">
+        <v>1</v>
+      </c>
+      <c r="I54" s="41">
+        <v>1</v>
+      </c>
+      <c r="J54" s="41">
+        <v>0</v>
+      </c>
+      <c r="K54" s="41">
+        <v>1</v>
+      </c>
+      <c r="L54" s="38"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+    </row>
+    <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="60"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-    </row>
-    <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45">
-        <v>43216</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="38">
-        <v>0</v>
-      </c>
-      <c r="E55" s="38">
-        <v>0</v>
-      </c>
-      <c r="F55" s="69">
-        <v>1</v>
-      </c>
-      <c r="G55" s="69">
-        <v>1</v>
-      </c>
-      <c r="H55" s="69">
-        <v>1</v>
-      </c>
-      <c r="I55" s="69">
-        <v>1</v>
-      </c>
-      <c r="J55" s="38">
-        <v>0</v>
-      </c>
-      <c r="K55" s="69">
-        <v>1</v>
-      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="38"/>
       <c r="O55" s="20"/>
       <c r="P55" s="20"/>
       <c r="Q55" s="20"/>
@@ -3588,46 +3622,64 @@
       <c r="V55" s="20"/>
       <c r="W55" s="20"/>
     </row>
-    <row r="56" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="23" t="s">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="46">
+        <v>43217</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="47">
+        <v>0</v>
+      </c>
+      <c r="E56" s="47">
+        <v>0</v>
+      </c>
+      <c r="F56" s="47">
+        <v>1</v>
+      </c>
+      <c r="G56" s="47">
+        <v>1</v>
+      </c>
+      <c r="H56" s="47">
+        <v>1</v>
+      </c>
+      <c r="I56" s="47">
+        <v>1</v>
+      </c>
+      <c r="J56" s="47">
+        <v>0</v>
+      </c>
+      <c r="K56" s="47">
+        <v>1</v>
+      </c>
+      <c r="L56" s="39"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="46"/>
+      <c r="B57" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="70"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="46">
-        <v>43217</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="39"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3638,46 +3690,48 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="24" t="s">
+    <row r="58" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="45">
+        <v>43218</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="38"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+    </row>
+    <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
+      <c r="B59" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-    </row>
-    <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45">
-        <v>43218</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="38"/>
       <c r="O59" s="20"/>
       <c r="P59" s="20"/>
       <c r="Q59" s="20"/>
@@ -3688,46 +3742,48 @@
       <c r="V59" s="20"/>
       <c r="W59" s="20"/>
     </row>
-    <row r="60" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="23" t="s">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="46">
+        <v>43219</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="39"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="46">
-        <v>43219</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="39"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -3738,46 +3794,48 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
-      <c r="B62" s="24" t="s">
+    <row r="62" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="45">
+        <v>43220</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="38"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+    </row>
+    <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
+      <c r="B63" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-    </row>
-    <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="45">
-        <v>43220</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="38"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
       <c r="Q63" s="20"/>
@@ -3788,29 +3846,24 @@
       <c r="V63" s="20"/>
       <c r="W63" s="20"/>
     </row>
-    <row r="64" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
@@ -3851,7 +3904,8 @@
       <c r="W66" s="2"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3870,8 +3924,7 @@
       <c r="W67" s="2"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4994,6 +5047,10 @@
     <row r="127" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -5516,257 +5573,241 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="226">
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
+  <mergeCells count="233">
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5778,7 +5819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -5796,22 +5837,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -5837,14 +5878,14 @@
       <c r="A3" s="10">
         <v>43191</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="26">
         <v>335</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="53">
+      <c r="E3" s="58">
         <v>43191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -5853,18 +5894,18 @@
       <c r="G3" s="15">
         <v>460</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43192</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="27">
         <v>110</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="53"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5879,28 +5920,28 @@
       <c r="A5" s="10">
         <v>43193</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="26">
         <v>78</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="53"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="15">
         <v>180</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43194</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="27">
         <v>0</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="2"/>
       <c r="E6" s="9">
         <v>43192</v>
@@ -5917,446 +5958,446 @@
       <c r="A7" s="10">
         <v>43195</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="26">
         <v>95</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="54">
+      <c r="E7" s="51">
         <v>43193</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="F7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="26">
         <v>30</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43196</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="27">
         <v>173</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>53</v>
+      <c r="C8" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="30">
+      <c r="E8" s="52"/>
+      <c r="F8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="26">
         <v>75</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>43197</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="26">
         <v>69</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="56">
+      <c r="E9" s="59">
         <v>43196</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="31">
+      <c r="F9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="27">
         <v>240</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43198</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="27">
         <v>0</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="E10" s="60"/>
+      <c r="F10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="27">
         <v>380</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>43199</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="26">
         <v>71</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>59</v>
+      <c r="C11" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="49">
+      <c r="E11" s="53">
         <v>43197</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="30">
+      <c r="F11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="26">
         <v>10</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43200</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="27">
         <v>0</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="30">
+      <c r="E12" s="55"/>
+      <c r="F12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="26">
         <v>102</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>43201</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="26">
         <v>0</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="30">
+      <c r="E13" s="54"/>
+      <c r="F13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="26">
         <v>240</v>
       </c>
-      <c r="H13" s="30"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43202</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="27">
         <v>0</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="2"/>
       <c r="E14" s="7">
         <v>43199</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="31">
+      <c r="F14" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="27">
         <v>350</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>43203</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="26">
         <v>0</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10">
         <v>43200</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="30">
+      <c r="F15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="26">
         <v>95</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43204</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="27">
         <v>360</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>64</v>
+      <c r="C16" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="32">
+      <c r="E16" s="28">
         <v>43201</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="31">
+      <c r="F16" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="27">
         <v>45</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>43205</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="49">
+      <c r="E17" s="53">
         <v>43205</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="30">
+      <c r="F17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="26">
         <v>240</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43206</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="30">
+      <c r="E18" s="54"/>
+      <c r="F18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="26">
         <v>100</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>43207</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="31">
+      <c r="E19" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="27">
         <v>280</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43208</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="31">
+      <c r="E20" s="49"/>
+      <c r="F20" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="27">
         <v>39</v>
       </c>
-      <c r="H20" s="31"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>43209</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="26">
         <v>11</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>74</v>
+      <c r="C21" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="31">
+      <c r="E21" s="49"/>
+      <c r="F21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="27">
         <v>70</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43210</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="27">
         <v>395</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="31">
+      <c r="E22" s="50"/>
+      <c r="F22" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="27">
         <v>30</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>43211</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="2"/>
       <c r="E23" s="10">
         <v>43211</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="34">
+      <c r="F23" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="29">
         <v>70</v>
       </c>
-      <c r="H23" s="34"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43212</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="2"/>
       <c r="E24" s="9">
         <v>43214</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="31">
+      <c r="F24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="27">
         <v>65</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>43213</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="54">
+      <c r="E25" s="51">
         <v>43216</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="37">
+      <c r="F25" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="32">
         <v>85</v>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43214</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="31">
         <v>34</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>73</v>
+      <c r="C26" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="37">
+      <c r="E26" s="52"/>
+      <c r="F26" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="32">
         <v>95</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>43215</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43216</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>43217</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43218</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>43219</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43220</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="2"/>
     </row>
     <row r="43" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6481,12 +6522,12 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
       <c r="E1" s="61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
@@ -6494,7 +6535,7 @@
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -6509,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -6538,11 +6579,11 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="E4" s="27">
+      <c r="E4" s="23">
         <v>43195</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="8">
         <v>104</v>
@@ -6890,12 +6931,12 @@
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="2"/>
       <c r="D1" s="64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
@@ -6905,20 +6946,20 @@
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -6938,10 +6979,10 @@
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
       <c r="D3" s="65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -6964,7 +7005,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="65"/>
       <c r="E4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -6985,11 +7026,11 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="66" t="s">
-        <v>33</v>
+      <c r="D5" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -7010,9 +7051,9 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="66"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -7029,7 +7070,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="2"/>
@@ -7054,7 +7095,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>

--- a/2018-04.xlsx
+++ b/2018-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="员工工时" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>购买物品</t>
     <rPh sb="0" eb="1">
@@ -164,37 +164,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>李明生</t>
-    <rPh sb="0" eb="1">
-      <t>li'ming'shen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>sheng</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>老刘</t>
-    <rPh sb="0" eb="1">
-      <t>lao'liu</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>老牛</t>
-    <rPh sb="0" eb="1">
-      <t>lao'niu</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>老宋</t>
-    <rPh sb="0" eb="1">
-      <t>lao'song</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>上午</t>
     <rPh sb="0" eb="1">
       <t>shang'wu</t>
@@ -281,19 +250,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>老刘(三轮车驾驶员)</t>
-    <rPh sb="0" eb="1">
-      <t>lao'liu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>san'lun'che</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>jia'shi'yuan</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2018年4月份员工工时汇总</t>
     <rPh sb="4" eb="5">
       <t>nian</t>
@@ -316,26 +272,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>hui'zong</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计/元</t>
-    <rPh sb="0" eb="1">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yuan</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计/月</t>
-    <rPh sb="0" eb="1">
-      <t>gong'ji</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yue</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -404,22 +340,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>牛顺清/天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋现春/天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩耀成/天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>周广涛/天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>锯子X2</t>
     <rPh sb="0" eb="1">
       <t>ju'zi</t>
@@ -428,10 +348,6 @@
   </si>
   <si>
     <t>电水壶+扳手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪龙玉/天</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -769,12 +685,190 @@
     <t>张行宽</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>李</t>
+    <rPh sb="0" eb="1">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜、厨房用品</t>
+    <rPh sb="0" eb="1">
+      <t>cai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'fang'yong'p</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ji</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘占京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顺清/天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顺清</t>
+  </si>
+  <si>
+    <t>宋现春/天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋现春</t>
+  </si>
+  <si>
+    <t>汪龙玉/天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩耀成/天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周广涛/天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周广涛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨顺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张行宽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪龙玉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩耀成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>老刘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：小工1工时，驾驶1工时；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妹夫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：驾驶2工时</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>lao'liu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao'gong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jia'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mei'fu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jia'hsi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gong'shi</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年4月支出给员工汇总</t>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hui'zong</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三轮车老刘</t>
+    <rPh sb="0" eb="1">
+      <t>san'lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>che</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lao'liu</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -839,8 +933,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,8 +989,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1006,6 +1121,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1013,7 +1165,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,12 +1212,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,21 +1253,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,6 +1267,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,7 +1297,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,8 +1354,72 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1418,7 +1637,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C32" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:C33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" headerRowCellStyle="好">
   <tableColumns count="3">
     <tableColumn id="1" name="日期" dataDxfId="7"/>
     <tableColumn id="2" name="买菜金额/元" dataDxfId="6"/>
@@ -1704,9 +1923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20:G21"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,111 +1942,116 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>43190</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="41">
+      <c r="B2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="42">
         <v>0</v>
       </c>
-      <c r="D2" s="41">
-        <v>1</v>
-      </c>
-      <c r="E2" s="41">
-        <v>1</v>
-      </c>
-      <c r="F2" s="41">
-        <v>1</v>
-      </c>
-      <c r="G2" s="41">
-        <v>1</v>
-      </c>
-      <c r="H2" s="41">
-        <v>1</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="38"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="42">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42">
+        <v>1</v>
+      </c>
+      <c r="H2" s="42">
+        <v>1</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
-      <c r="B3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="38"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
+      <c r="B3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="46">
         <v>43191</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="42">
+        <v>12</v>
+      </c>
+      <c r="C4" s="47">
         <v>0</v>
       </c>
       <c r="D4" s="35">
@@ -1839,16 +2063,17 @@
       <c r="F4" s="35">
         <v>0.5</v>
       </c>
-      <c r="G4" s="42">
-        <v>1</v>
-      </c>
-      <c r="H4" s="42">
+      <c r="G4" s="47">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47">
         <v>0</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="39"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1862,9 +2087,9 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="47"/>
       <c r="D5" s="35">
         <v>0</v>
       </c>
@@ -1874,12 +2099,13 @@
       <c r="F5" s="35">
         <v>0</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="39"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1890,109 +2116,112 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="45">
         <v>43192</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="B6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="34">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="34">
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="34">
         <v>0</v>
       </c>
-      <c r="G6" s="41">
-        <v>1</v>
-      </c>
-      <c r="H6" s="41">
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+      <c r="H6" s="42">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="38"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-    </row>
-    <row r="7" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
-      <c r="B7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="33">
+      <c r="B7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="34">
         <v>0.5</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="34">
         <v>0.5</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="34">
         <v>0.5</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="38"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="46">
         <v>43193</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="44">
         <v>0</v>
       </c>
-      <c r="D8" s="40">
-        <v>1</v>
-      </c>
-      <c r="E8" s="40">
-        <v>1</v>
-      </c>
-      <c r="F8" s="40">
-        <v>1</v>
-      </c>
-      <c r="G8" s="40">
-        <v>1</v>
-      </c>
-      <c r="H8" s="40">
-        <v>1</v>
-      </c>
-      <c r="I8" s="40">
-        <v>1</v>
-      </c>
-      <c r="J8" s="40">
-        <v>1</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="39"/>
+      <c r="D8" s="43">
+        <v>1</v>
+      </c>
+      <c r="E8" s="43">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1</v>
+      </c>
+      <c r="G8" s="43">
+        <v>1</v>
+      </c>
+      <c r="H8" s="43">
+        <v>1</v>
+      </c>
+      <c r="I8" s="43">
+        <v>1</v>
+      </c>
+      <c r="J8" s="43">
+        <v>1</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2006,18 +2235,19 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
       <c r="B9" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="44"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="39"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2028,83 +2258,85 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <v>43194</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="41">
-        <v>1</v>
-      </c>
-      <c r="E10" s="41">
-        <v>1</v>
-      </c>
-      <c r="F10" s="41">
-        <v>1</v>
-      </c>
-      <c r="G10" s="41">
-        <v>1</v>
-      </c>
-      <c r="H10" s="41">
-        <v>1</v>
-      </c>
-      <c r="I10" s="41">
-        <v>1</v>
-      </c>
-      <c r="J10" s="41">
-        <v>1</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="38"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-    </row>
-    <row r="11" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="42">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
+        <v>1</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1</v>
+      </c>
+      <c r="H10" s="42">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42">
+        <v>1</v>
+      </c>
+      <c r="J10" s="42">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
-      <c r="B11" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="38"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
+      <c r="B11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>43195</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D12" s="35">
         <v>0.5</v>
@@ -2127,8 +2359,9 @@
       <c r="J12" s="35">
         <v>0.5</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="39"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2142,7 +2375,7 @@
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="35">
         <v>0</v>
@@ -2162,14 +2395,15 @@
       <c r="H13" s="35">
         <v>0</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>0</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>0</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="39"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2180,109 +2414,112 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45">
         <v>43196</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="41">
+      <c r="B14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="42">
         <v>0</v>
       </c>
-      <c r="D14" s="41">
-        <v>1</v>
-      </c>
-      <c r="E14" s="41">
-        <v>1</v>
-      </c>
-      <c r="F14" s="41">
-        <v>1</v>
-      </c>
-      <c r="G14" s="41">
-        <v>1</v>
-      </c>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
-      <c r="I14" s="41">
-        <v>1</v>
-      </c>
-      <c r="J14" s="41">
-        <v>1</v>
-      </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="38"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-    </row>
-    <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="42">
+        <v>1</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="42">
+        <v>1</v>
+      </c>
+      <c r="K14" s="42"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
-      <c r="B15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="38"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
+      <c r="B15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>43197</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="42">
+        <v>12</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="47">
         <v>0</v>
       </c>
-      <c r="E16" s="40">
-        <v>1</v>
-      </c>
-      <c r="F16" s="40">
-        <v>1</v>
-      </c>
-      <c r="G16" s="40">
-        <v>1</v>
-      </c>
-      <c r="H16" s="42">
+      <c r="E16" s="43">
+        <v>1</v>
+      </c>
+      <c r="F16" s="43">
+        <v>1</v>
+      </c>
+      <c r="G16" s="43">
+        <v>1</v>
+      </c>
+      <c r="H16" s="47">
         <v>0</v>
       </c>
-      <c r="I16" s="40">
-        <v>1</v>
-      </c>
-      <c r="J16" s="40">
-        <v>1</v>
-      </c>
-      <c r="K16" s="37">
+      <c r="I16" s="43">
+        <v>1</v>
+      </c>
+      <c r="J16" s="43">
+        <v>1</v>
+      </c>
+      <c r="K16" s="36">
         <v>0</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2296,20 +2533,21 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="37">
+        <v>13</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="36">
         <v>0.5</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2320,111 +2558,114 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45">
         <v>43198</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="41">
-        <v>1</v>
-      </c>
-      <c r="E18" s="41">
-        <v>1</v>
-      </c>
-      <c r="F18" s="41">
-        <v>1</v>
-      </c>
-      <c r="G18" s="41">
-        <v>1</v>
-      </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-      <c r="I18" s="41">
-        <v>1</v>
-      </c>
-      <c r="J18" s="41">
-        <v>1</v>
-      </c>
-      <c r="K18" s="41">
-        <v>1</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-    </row>
-    <row r="19" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="42">
+        <v>1</v>
+      </c>
+      <c r="E18" s="42">
+        <v>1</v>
+      </c>
+      <c r="F18" s="42">
+        <v>1</v>
+      </c>
+      <c r="G18" s="42">
+        <v>1</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42">
+        <v>1</v>
+      </c>
+      <c r="J18" s="42">
+        <v>1</v>
+      </c>
+      <c r="K18" s="42">
+        <v>1</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45"/>
-      <c r="B19" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="38"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
+      <c r="B19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="46">
         <v>43199</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="40">
-        <v>1</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1</v>
-      </c>
-      <c r="F20" s="40">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40">
-        <v>1</v>
-      </c>
-      <c r="H20" s="40">
-        <v>1</v>
-      </c>
-      <c r="I20" s="40">
-        <v>1</v>
-      </c>
-      <c r="J20" s="40">
-        <v>1</v>
-      </c>
-      <c r="K20" s="40">
-        <v>1</v>
-      </c>
-      <c r="L20" s="39"/>
+        <v>12</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="43">
+        <v>1</v>
+      </c>
+      <c r="E20" s="43">
+        <v>1</v>
+      </c>
+      <c r="F20" s="43">
+        <v>1</v>
+      </c>
+      <c r="G20" s="43">
+        <v>1</v>
+      </c>
+      <c r="H20" s="43">
+        <v>1</v>
+      </c>
+      <c r="I20" s="43">
+        <v>1</v>
+      </c>
+      <c r="J20" s="43">
+        <v>1</v>
+      </c>
+      <c r="K20" s="43">
+        <v>1</v>
+      </c>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2438,18 +2679,19 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C21" s="35"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="39"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2460,107 +2702,110 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
         <v>43200</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="41">
-        <v>1</v>
-      </c>
-      <c r="E22" s="41">
-        <v>1</v>
-      </c>
-      <c r="F22" s="41">
-        <v>1</v>
-      </c>
-      <c r="G22" s="41">
-        <v>1</v>
-      </c>
-      <c r="H22" s="41">
-        <v>1</v>
-      </c>
-      <c r="I22" s="41">
-        <v>1</v>
-      </c>
-      <c r="J22" s="41">
-        <v>1</v>
-      </c>
-      <c r="K22" s="41">
-        <v>1</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-    </row>
-    <row r="23" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="42">
+        <v>1</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1</v>
+      </c>
+      <c r="F22" s="42">
+        <v>1</v>
+      </c>
+      <c r="G22" s="42">
+        <v>1</v>
+      </c>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42">
+        <v>1</v>
+      </c>
+      <c r="J22" s="42">
+        <v>1</v>
+      </c>
+      <c r="K22" s="42">
+        <v>1</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="45"/>
-      <c r="B23" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="38"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
+      <c r="B23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="46">
         <v>43201</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="40">
-        <v>1</v>
-      </c>
-      <c r="E24" s="40">
-        <v>1</v>
-      </c>
-      <c r="F24" s="40">
-        <v>1</v>
-      </c>
-      <c r="G24" s="40">
-        <v>1</v>
-      </c>
-      <c r="H24" s="40">
-        <v>1</v>
-      </c>
-      <c r="I24" s="40">
-        <v>1</v>
-      </c>
-      <c r="J24" s="40">
-        <v>1</v>
-      </c>
-      <c r="K24" s="40">
-        <v>1</v>
-      </c>
-      <c r="L24" s="39"/>
+      <c r="D24" s="43">
+        <v>1</v>
+      </c>
+      <c r="E24" s="43">
+        <v>1</v>
+      </c>
+      <c r="F24" s="43">
+        <v>1</v>
+      </c>
+      <c r="G24" s="43">
+        <v>1</v>
+      </c>
+      <c r="H24" s="43">
+        <v>1</v>
+      </c>
+      <c r="I24" s="43">
+        <v>1</v>
+      </c>
+      <c r="J24" s="43">
+        <v>1</v>
+      </c>
+      <c r="K24" s="43">
+        <v>1</v>
+      </c>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2574,18 +2819,19 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="39"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2596,107 +2842,110 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="45">
         <v>43202</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="41">
-        <v>1</v>
-      </c>
-      <c r="E26" s="41">
-        <v>1</v>
-      </c>
-      <c r="F26" s="41">
-        <v>1</v>
-      </c>
-      <c r="G26" s="41">
-        <v>1</v>
-      </c>
-      <c r="H26" s="41">
-        <v>1</v>
-      </c>
-      <c r="I26" s="41">
-        <v>1</v>
-      </c>
-      <c r="J26" s="41">
+      <c r="B26" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="42">
+        <v>1</v>
+      </c>
+      <c r="E26" s="42">
+        <v>1</v>
+      </c>
+      <c r="F26" s="42">
+        <v>1</v>
+      </c>
+      <c r="G26" s="42">
+        <v>1</v>
+      </c>
+      <c r="H26" s="42">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42">
+        <v>1</v>
+      </c>
+      <c r="J26" s="42">
         <v>0</v>
       </c>
-      <c r="K26" s="41">
-        <v>1</v>
-      </c>
-      <c r="L26" s="38"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-    </row>
-    <row r="27" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="42">
+        <v>1</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
-      <c r="B27" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="38"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
+      <c r="B27" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="46">
         <v>43203</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="44">
         <v>0</v>
       </c>
-      <c r="E28" s="40">
-        <v>1</v>
-      </c>
-      <c r="F28" s="40">
-        <v>1</v>
-      </c>
-      <c r="G28" s="40">
-        <v>1</v>
-      </c>
-      <c r="H28" s="40">
-        <v>1</v>
-      </c>
-      <c r="I28" s="40">
+      <c r="E28" s="43">
+        <v>1</v>
+      </c>
+      <c r="F28" s="43">
+        <v>1</v>
+      </c>
+      <c r="G28" s="43">
+        <v>1</v>
+      </c>
+      <c r="H28" s="43">
+        <v>1</v>
+      </c>
+      <c r="I28" s="43">
         <v>1</v>
       </c>
       <c r="J28" s="44">
         <v>0</v>
       </c>
-      <c r="K28" s="40">
-        <v>1</v>
-      </c>
-      <c r="L28" s="39"/>
+      <c r="K28" s="43">
+        <v>1</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2710,18 +2959,19 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="44"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="39"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2732,107 +2982,110 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="45">
         <v>43204</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="41">
+      <c r="B30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="42">
         <v>0</v>
       </c>
-      <c r="E30" s="41">
-        <v>1</v>
-      </c>
-      <c r="F30" s="41">
-        <v>1</v>
-      </c>
-      <c r="G30" s="41">
-        <v>1</v>
-      </c>
-      <c r="H30" s="41">
-        <v>1</v>
-      </c>
-      <c r="I30" s="41">
-        <v>1</v>
-      </c>
-      <c r="J30" s="41">
+      <c r="E30" s="42">
+        <v>1</v>
+      </c>
+      <c r="F30" s="42">
+        <v>1</v>
+      </c>
+      <c r="G30" s="42">
+        <v>1</v>
+      </c>
+      <c r="H30" s="42">
+        <v>1</v>
+      </c>
+      <c r="I30" s="42">
+        <v>1</v>
+      </c>
+      <c r="J30" s="42">
         <v>0</v>
       </c>
-      <c r="K30" s="41">
-        <v>1</v>
-      </c>
-      <c r="L30" s="38"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-    </row>
-    <row r="31" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="42">
+        <v>1</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="45"/>
-      <c r="B31" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="38"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
+      <c r="B31" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="46">
         <v>43205</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C32" s="35"/>
-      <c r="D32" s="40">
-        <v>1</v>
-      </c>
-      <c r="E32" s="40">
-        <v>1</v>
-      </c>
-      <c r="F32" s="40">
-        <v>1</v>
-      </c>
-      <c r="G32" s="40">
-        <v>1</v>
-      </c>
-      <c r="H32" s="40">
-        <v>1</v>
-      </c>
-      <c r="I32" s="40">
+      <c r="D32" s="43">
+        <v>1</v>
+      </c>
+      <c r="E32" s="43">
+        <v>1</v>
+      </c>
+      <c r="F32" s="43">
+        <v>1</v>
+      </c>
+      <c r="G32" s="43">
+        <v>1</v>
+      </c>
+      <c r="H32" s="43">
+        <v>1</v>
+      </c>
+      <c r="I32" s="43">
         <v>1</v>
       </c>
       <c r="J32" s="44">
         <v>0</v>
       </c>
-      <c r="K32" s="40">
-        <v>1</v>
-      </c>
-      <c r="L32" s="39"/>
+      <c r="K32" s="43">
+        <v>1</v>
+      </c>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2846,18 +3099,19 @@
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
       <c r="B33" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="44"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="39"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2868,107 +3122,110 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="45">
         <v>43206</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="41">
-        <v>1</v>
-      </c>
-      <c r="E34" s="41">
-        <v>1</v>
-      </c>
-      <c r="F34" s="41">
-        <v>1</v>
-      </c>
-      <c r="G34" s="41">
-        <v>1</v>
-      </c>
-      <c r="H34" s="41">
-        <v>1</v>
-      </c>
-      <c r="I34" s="41">
-        <v>1</v>
-      </c>
-      <c r="J34" s="41">
+      <c r="B34" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="42">
+        <v>1</v>
+      </c>
+      <c r="E34" s="42">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42">
+        <v>1</v>
+      </c>
+      <c r="G34" s="42">
+        <v>1</v>
+      </c>
+      <c r="H34" s="42">
+        <v>1</v>
+      </c>
+      <c r="I34" s="42">
+        <v>1</v>
+      </c>
+      <c r="J34" s="42">
         <v>0</v>
       </c>
-      <c r="K34" s="41">
-        <v>1</v>
-      </c>
-      <c r="L34" s="38"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-    </row>
-    <row r="35" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="42">
+        <v>1</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+    </row>
+    <row r="35" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
-      <c r="B35" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="38"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
+      <c r="B35" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="46">
         <v>43207</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36" s="35"/>
-      <c r="D36" s="40">
-        <v>1</v>
-      </c>
-      <c r="E36" s="40">
-        <v>1</v>
-      </c>
-      <c r="F36" s="40">
-        <v>1</v>
-      </c>
-      <c r="G36" s="40">
-        <v>1</v>
-      </c>
-      <c r="H36" s="40">
-        <v>1</v>
-      </c>
-      <c r="I36" s="40">
+      <c r="D36" s="43">
+        <v>1</v>
+      </c>
+      <c r="E36" s="43">
+        <v>1</v>
+      </c>
+      <c r="F36" s="43">
+        <v>1</v>
+      </c>
+      <c r="G36" s="43">
+        <v>1</v>
+      </c>
+      <c r="H36" s="43">
+        <v>1</v>
+      </c>
+      <c r="I36" s="43">
         <v>1</v>
       </c>
       <c r="J36" s="44">
         <v>0</v>
       </c>
-      <c r="K36" s="40">
-        <v>1</v>
-      </c>
-      <c r="L36" s="39"/>
+      <c r="K36" s="43">
+        <v>1</v>
+      </c>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -2982,18 +3239,19 @@
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
       <c r="B37" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C37" s="35"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
       <c r="J37" s="44"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="39"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -3004,107 +3262,110 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>43208</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="41">
-        <v>1</v>
-      </c>
-      <c r="E38" s="41">
-        <v>1</v>
-      </c>
-      <c r="F38" s="41">
-        <v>1</v>
-      </c>
-      <c r="G38" s="41">
-        <v>1</v>
-      </c>
-      <c r="H38" s="41">
-        <v>1</v>
-      </c>
-      <c r="I38" s="41">
-        <v>1</v>
-      </c>
-      <c r="J38" s="41">
+      <c r="B38" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="42">
+        <v>1</v>
+      </c>
+      <c r="E38" s="42">
+        <v>1</v>
+      </c>
+      <c r="F38" s="42">
+        <v>1</v>
+      </c>
+      <c r="G38" s="42">
+        <v>1</v>
+      </c>
+      <c r="H38" s="42">
+        <v>1</v>
+      </c>
+      <c r="I38" s="42">
+        <v>1</v>
+      </c>
+      <c r="J38" s="42">
         <v>0</v>
       </c>
-      <c r="K38" s="41">
-        <v>1</v>
-      </c>
-      <c r="L38" s="38"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-    </row>
-    <row r="39" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="42">
+        <v>1</v>
+      </c>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
-      <c r="B39" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="38"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
+      <c r="B39" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="46">
         <v>43209</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" s="35"/>
-      <c r="D40" s="40">
+      <c r="D40" s="43">
         <v>0</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="43">
         <v>0</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="33">
         <v>0.5</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="43">
         <v>0</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="43">
         <v>0</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="28">
         <v>0.5</v>
       </c>
-      <c r="J40" s="40">
+      <c r="J40" s="43">
         <v>0</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="28">
         <v>0.5</v>
       </c>
-      <c r="L40" s="39"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -3118,24 +3379,25 @@
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
       <c r="B41" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41" s="35"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="34">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="33">
         <v>0</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="30">
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="28">
         <v>0</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="30">
+      <c r="J41" s="43"/>
+      <c r="K41" s="28">
         <v>0</v>
       </c>
-      <c r="L41" s="39"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -3146,107 +3408,110 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="45">
         <v>43210</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="41">
-        <v>1</v>
-      </c>
-      <c r="E42" s="41">
-        <v>1</v>
-      </c>
-      <c r="F42" s="41">
-        <v>1</v>
-      </c>
-      <c r="G42" s="41">
-        <v>1</v>
-      </c>
-      <c r="H42" s="41">
-        <v>1</v>
-      </c>
-      <c r="I42" s="41">
-        <v>1</v>
-      </c>
-      <c r="J42" s="41">
+      <c r="B42" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="42">
         <v>0</v>
       </c>
-      <c r="K42" s="41">
-        <v>1</v>
-      </c>
-      <c r="L42" s="38"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-    </row>
-    <row r="43" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
-      <c r="B43" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="38"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
+      <c r="B43" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="46">
         <v>43211</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44" s="35"/>
-      <c r="D44" s="40">
-        <v>1</v>
-      </c>
-      <c r="E44" s="40">
-        <v>1</v>
-      </c>
-      <c r="F44" s="40">
-        <v>1</v>
-      </c>
-      <c r="G44" s="40">
-        <v>1</v>
-      </c>
-      <c r="H44" s="40">
-        <v>1</v>
-      </c>
-      <c r="I44" s="40">
+      <c r="D44" s="43">
+        <v>1</v>
+      </c>
+      <c r="E44" s="43">
+        <v>1</v>
+      </c>
+      <c r="F44" s="43">
+        <v>1</v>
+      </c>
+      <c r="G44" s="43">
+        <v>1</v>
+      </c>
+      <c r="H44" s="43">
+        <v>1</v>
+      </c>
+      <c r="I44" s="43">
         <v>1</v>
       </c>
       <c r="J44" s="44">
         <v>0</v>
       </c>
-      <c r="K44" s="40">
-        <v>1</v>
-      </c>
-      <c r="L44" s="39"/>
+      <c r="K44" s="43">
+        <v>1</v>
+      </c>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -3260,18 +3525,19 @@
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
       <c r="B45" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C45" s="35"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
       <c r="J45" s="44"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="39"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3282,107 +3548,110 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="45">
         <v>43212</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="41">
-        <v>1</v>
-      </c>
-      <c r="E46" s="41">
-        <v>1</v>
-      </c>
-      <c r="F46" s="41">
-        <v>1</v>
-      </c>
-      <c r="G46" s="41">
-        <v>1</v>
-      </c>
-      <c r="H46" s="41">
-        <v>1</v>
-      </c>
-      <c r="I46" s="41">
-        <v>1</v>
-      </c>
-      <c r="J46" s="41">
+      <c r="B46" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="42">
+        <v>1</v>
+      </c>
+      <c r="E46" s="42">
+        <v>1</v>
+      </c>
+      <c r="F46" s="42">
+        <v>1</v>
+      </c>
+      <c r="G46" s="42">
+        <v>1</v>
+      </c>
+      <c r="H46" s="42">
+        <v>1</v>
+      </c>
+      <c r="I46" s="42">
+        <v>1</v>
+      </c>
+      <c r="J46" s="42">
         <v>0</v>
       </c>
-      <c r="K46" s="41">
-        <v>1</v>
-      </c>
-      <c r="L46" s="38"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-    </row>
-    <row r="47" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="42">
+        <v>1</v>
+      </c>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
-      <c r="B47" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="38"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
+      <c r="B47" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="46">
         <v>43213</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C48" s="35"/>
-      <c r="D48" s="40">
+      <c r="D48" s="43">
         <v>0</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="43">
         <v>0</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F48" s="43">
         <v>0</v>
       </c>
-      <c r="G48" s="40">
+      <c r="G48" s="43">
         <v>0</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="43">
         <v>0</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="43">
         <v>0</v>
       </c>
-      <c r="J48" s="40">
+      <c r="J48" s="43">
         <v>0</v>
       </c>
-      <c r="K48" s="40">
+      <c r="K48" s="43">
         <v>0</v>
       </c>
-      <c r="L48" s="39"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3396,18 +3665,19 @@
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
       <c r="B49" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C49" s="35"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="39"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -3418,107 +3688,110 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>43214</v>
       </c>
-      <c r="B50" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="41">
+      <c r="B50" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="42">
         <v>0</v>
       </c>
-      <c r="E50" s="41">
-        <v>1</v>
-      </c>
-      <c r="F50" s="41">
-        <v>1</v>
-      </c>
-      <c r="G50" s="41">
-        <v>1</v>
-      </c>
-      <c r="H50" s="41">
-        <v>1</v>
-      </c>
-      <c r="I50" s="41">
+      <c r="E50" s="42">
+        <v>1</v>
+      </c>
+      <c r="F50" s="42">
+        <v>1</v>
+      </c>
+      <c r="G50" s="42">
+        <v>1</v>
+      </c>
+      <c r="H50" s="42">
+        <v>1</v>
+      </c>
+      <c r="I50" s="42">
         <v>0</v>
       </c>
-      <c r="J50" s="41">
+      <c r="J50" s="42">
         <v>0</v>
       </c>
-      <c r="K50" s="41">
-        <v>1</v>
-      </c>
-      <c r="L50" s="38"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-    </row>
-    <row r="51" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="42">
+        <v>1</v>
+      </c>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
-      <c r="B51" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="38"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
+      <c r="B51" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="46">
         <v>43215</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52" s="35"/>
-      <c r="D52" s="40">
+      <c r="D52" s="43">
         <v>0</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="43">
         <v>0</v>
       </c>
-      <c r="F52" s="42">
-        <v>1</v>
-      </c>
-      <c r="G52" s="42">
-        <v>1</v>
-      </c>
-      <c r="H52" s="40">
+      <c r="F52" s="47">
+        <v>1</v>
+      </c>
+      <c r="G52" s="47">
+        <v>1</v>
+      </c>
+      <c r="H52" s="43">
         <v>0</v>
       </c>
-      <c r="I52" s="43">
-        <v>1</v>
-      </c>
-      <c r="J52" s="40">
+      <c r="I52" s="48">
+        <v>1</v>
+      </c>
+      <c r="J52" s="43">
         <v>0</v>
       </c>
-      <c r="K52" s="43">
-        <v>1</v>
-      </c>
-      <c r="L52" s="39"/>
+      <c r="K52" s="48">
+        <v>1</v>
+      </c>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3532,18 +3805,19 @@
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
       <c r="B53" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C53" s="35"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="39"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3554,107 +3828,110 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="45">
         <v>43216</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="41">
+      <c r="B54" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="42">
         <v>0</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="42">
         <v>0</v>
       </c>
-      <c r="F54" s="41">
-        <v>1</v>
-      </c>
-      <c r="G54" s="41">
-        <v>1</v>
-      </c>
-      <c r="H54" s="41">
-        <v>1</v>
-      </c>
-      <c r="I54" s="41">
-        <v>1</v>
-      </c>
-      <c r="J54" s="41">
+      <c r="F54" s="42">
+        <v>1</v>
+      </c>
+      <c r="G54" s="42">
+        <v>1</v>
+      </c>
+      <c r="H54" s="42">
+        <v>1</v>
+      </c>
+      <c r="I54" s="42">
+        <v>1</v>
+      </c>
+      <c r="J54" s="42">
         <v>0</v>
       </c>
-      <c r="K54" s="41">
-        <v>1</v>
-      </c>
-      <c r="L54" s="38"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-    </row>
-    <row r="55" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K54" s="42">
+        <v>1</v>
+      </c>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
-      <c r="B55" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="38"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
+      <c r="B55" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="46">
         <v>43217</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" s="35"/>
-      <c r="D56" s="47">
+      <c r="D56" s="41">
         <v>0</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="41">
         <v>0</v>
       </c>
-      <c r="F56" s="47">
-        <v>1</v>
-      </c>
-      <c r="G56" s="47">
-        <v>1</v>
-      </c>
-      <c r="H56" s="47">
-        <v>1</v>
-      </c>
-      <c r="I56" s="47">
-        <v>1</v>
-      </c>
-      <c r="J56" s="47">
+      <c r="F56" s="41">
+        <v>1</v>
+      </c>
+      <c r="G56" s="41">
+        <v>1</v>
+      </c>
+      <c r="H56" s="41">
+        <v>1</v>
+      </c>
+      <c r="I56" s="41">
+        <v>1</v>
+      </c>
+      <c r="J56" s="41">
         <v>0</v>
       </c>
-      <c r="K56" s="47">
-        <v>1</v>
-      </c>
-      <c r="L56" s="39"/>
+      <c r="K56" s="41">
+        <v>1</v>
+      </c>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -3668,18 +3945,19 @@
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
       <c r="B57" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C57" s="35"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="39"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3690,75 +3968,118 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="45">
         <v>43218</v>
       </c>
-      <c r="B58" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="38"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-    </row>
-    <row r="59" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="42">
+        <v>0</v>
+      </c>
+      <c r="E58" s="42">
+        <v>0</v>
+      </c>
+      <c r="F58" s="42">
+        <v>1</v>
+      </c>
+      <c r="G58" s="42">
+        <v>1</v>
+      </c>
+      <c r="H58" s="42">
+        <v>1</v>
+      </c>
+      <c r="I58" s="42">
+        <v>1</v>
+      </c>
+      <c r="J58" s="42">
+        <v>0</v>
+      </c>
+      <c r="K58" s="42">
+        <v>1</v>
+      </c>
+      <c r="L58" s="42">
+        <v>1</v>
+      </c>
+      <c r="M58" s="42">
+        <v>1</v>
+      </c>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="45"/>
-      <c r="B59" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="38"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
+      <c r="B59" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="46">
         <v>43219</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="39"/>
+      <c r="D60" s="41">
+        <v>0</v>
+      </c>
+      <c r="E60" s="41">
+        <v>0</v>
+      </c>
+      <c r="F60" s="41">
+        <v>1</v>
+      </c>
+      <c r="G60" s="41">
+        <v>1</v>
+      </c>
+      <c r="H60" s="41">
+        <v>1</v>
+      </c>
+      <c r="I60" s="41">
+        <v>1</v>
+      </c>
+      <c r="J60" s="41">
+        <v>0</v>
+      </c>
+      <c r="K60" s="41">
+        <v>1</v>
+      </c>
+      <c r="L60" s="41">
+        <v>1</v>
+      </c>
+      <c r="M60" s="41">
+        <v>1</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -3772,18 +4093,19 @@
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
       <c r="B61" s="35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="39"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -3794,76 +4116,136 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="45">
         <v>43220</v>
       </c>
-      <c r="B62" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="38"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-    </row>
-    <row r="63" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="34"/>
+      <c r="D62" s="42">
+        <v>0</v>
+      </c>
+      <c r="E62" s="42">
+        <v>0</v>
+      </c>
+      <c r="F62" s="42">
+        <v>1</v>
+      </c>
+      <c r="G62" s="42">
+        <v>1</v>
+      </c>
+      <c r="H62" s="42">
+        <v>1</v>
+      </c>
+      <c r="I62" s="42">
+        <v>1</v>
+      </c>
+      <c r="J62" s="42">
+        <v>0</v>
+      </c>
+      <c r="K62" s="42">
+        <v>1</v>
+      </c>
+      <c r="L62" s="42">
+        <v>1</v>
+      </c>
+      <c r="M62" s="42">
+        <v>1</v>
+      </c>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+    </row>
+    <row r="63" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="45"/>
-      <c r="B63" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="38"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
+      <c r="B63" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+    </row>
+    <row r="64" spans="1:23" s="71" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69">
+        <f>SUM(D2:D63)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E64" s="69">
+        <f>SUM(E2:E63)</f>
+        <v>21.5</v>
+      </c>
+      <c r="F64" s="69">
+        <f>SUM(F2:F63)</f>
+        <v>28</v>
+      </c>
+      <c r="G64" s="69">
+        <f>SUM(G2:G63)</f>
+        <v>28.5</v>
+      </c>
+      <c r="H64" s="69">
+        <f>SUM(H2:H63)</f>
+        <v>24.5</v>
+      </c>
+      <c r="I64" s="69">
+        <f>SUM(I2:I63)</f>
+        <v>25</v>
+      </c>
+      <c r="J64" s="69">
+        <f>SUM(J2:J63)</f>
+        <v>8.5</v>
+      </c>
+      <c r="K64" s="69">
+        <f>SUM(K2:K63)</f>
+        <v>22</v>
+      </c>
+      <c r="L64" s="69">
+        <f>SUM(L2:L63)</f>
+        <v>3</v>
+      </c>
+      <c r="M64" s="69">
+        <f>SUM(M56:M63)</f>
+        <v>3</v>
+      </c>
+      <c r="N64" s="70"/>
+      <c r="O64" s="70"/>
+      <c r="P64" s="70"/>
+      <c r="Q64" s="70"/>
+      <c r="R64" s="70"/>
+      <c r="S64" s="70"/>
+      <c r="T64" s="70"/>
+      <c r="U64" s="70"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="70"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
@@ -3904,8 +4286,8 @@
       <c r="W66" s="2"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -5574,44 +5956,43 @@
       <c r="W149" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
+  <mergeCells count="263">
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="K44:K45"/>
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="J54:J55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="G40:G41"/>
@@ -5627,81 +6008,48 @@
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="G16:G17"/>
@@ -5726,24 +6074,61 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
@@ -5751,63 +6136,90 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J34:J35"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="D54:D55"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="H52:H53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5817,10 +6229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="113" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5837,22 +6249,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="A1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="E1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -5878,14 +6290,14 @@
       <c r="A3" s="10">
         <v>43191</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>335</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="58">
+      <c r="E3" s="59">
         <v>43191</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -5894,18 +6306,18 @@
       <c r="G3" s="15">
         <v>460</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>43192</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <v>110</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
@@ -5920,36 +6332,36 @@
       <c r="A5" s="10">
         <v>43193</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>78</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="15">
         <v>180</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>43194</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>0</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="2"/>
       <c r="E6" s="9">
         <v>43192</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>85</v>
       </c>
       <c r="H6" s="9"/>
@@ -5958,450 +6370,481 @@
       <c r="A7" s="10">
         <v>43195</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>95</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="51">
+      <c r="E7" s="52">
         <v>43193</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="F7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="24">
         <v>30</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>43196</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>173</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>52</v>
+      <c r="C8" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="E8" s="53"/>
+      <c r="F8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="24">
         <v>75</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>43197</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <v>69</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="59">
+      <c r="E9" s="60">
         <v>43196</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="F9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="25">
         <v>240</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>43198</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="25">
         <v>0</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="E10" s="61"/>
+      <c r="F10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="25">
         <v>380</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>43199</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>71</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>58</v>
+      <c r="C11" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="53">
+      <c r="E11" s="54">
         <v>43197</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="F11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="24">
         <v>10</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>43200</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="25">
         <v>0</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="E12" s="56"/>
+      <c r="F12" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="24">
         <v>102</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>43201</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>0</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="E13" s="55"/>
+      <c r="F13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="24">
         <v>240</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>43202</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="25">
         <v>0</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="2"/>
       <c r="E14" s="7">
         <v>43199</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="F14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="25">
         <v>350</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>43203</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <v>0</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10">
         <v>43200</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="26">
+      <c r="F15" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="24">
         <v>95</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>43204</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="25">
         <v>360</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>63</v>
+      <c r="C16" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <v>43201</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="F16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="25">
         <v>45</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>43205</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="53">
+      <c r="E17" s="54">
         <v>43205</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="26">
+      <c r="F17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="24">
         <v>240</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>43206</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="26">
+      <c r="E18" s="55"/>
+      <c r="F18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="24">
         <v>100</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>43207</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="E19" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="25">
         <v>280</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>43208</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="27">
+      <c r="E20" s="50"/>
+      <c r="F20" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="25">
         <v>39</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>43209</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <v>11</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>73</v>
+      <c r="C21" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="27">
+      <c r="E21" s="50"/>
+      <c r="F21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="25">
         <v>70</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>43210</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="25">
         <v>395</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="27">
+      <c r="E22" s="51"/>
+      <c r="F22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="25">
         <v>30</v>
       </c>
-      <c r="H22" s="27"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>43211</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2"/>
       <c r="E23" s="10">
         <v>43211</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="29">
+      <c r="F23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="27">
         <v>70</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>43212</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="2"/>
       <c r="E24" s="9">
         <v>43214</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="27">
+      <c r="F24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="25">
         <v>65</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>43213</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="51">
+      <c r="E25" s="52">
         <v>43216</v>
       </c>
-      <c r="F25" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="32">
+      <c r="F25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="30">
         <v>85</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>43214</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <v>34</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>72</v>
+      <c r="C26" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="32">
+      <c r="E26" s="53"/>
+      <c r="F26" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="30">
         <v>95</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>43215</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="E27" s="40">
+        <v>43219</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="25">
+        <v>80</v>
+      </c>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>43216</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="E28" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="69">
+        <f>SUM(G3:G27)</f>
+        <v>3656</v>
+      </c>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>43217</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="80"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>43218</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="25">
+        <v>140</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>43219</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="24">
+        <v>56</v>
+      </c>
+      <c r="C31" s="24"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>43220</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="69">
+        <f>SUM(B3:B32)</f>
+        <v>1927</v>
+      </c>
+      <c r="C33" s="69"/>
+    </row>
+    <row r="34" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -6476,11 +6919,9 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E17:E18"/>
@@ -6504,7 +6945,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6521,21 +6962,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="E1" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="E1" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -6550,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -6579,11 +7020,11 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="E4" s="23">
+      <c r="E4" s="21">
         <v>43195</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8">
         <v>104</v>
@@ -6596,10 +7037,15 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74">
+        <f>SUM(G3:G4)</f>
+        <v>1034</v>
+      </c>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -6900,9 +7346,10 @@
     </row>
     <row r="43" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6917,7 +7364,7 @@
   <dimension ref="A1:U345"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6925,154 +7372,199 @@
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="64"/>
+      <c r="A1" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="65"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="D1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11"/>
+      <c r="A3" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="39">
+        <v>17.5</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="D3" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1927</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="I3" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="66">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="A4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="38">
+        <v>21.5</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="38">
+        <v>3656</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="66">
+        <v>1034</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11"/>
+      <c r="A5" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="39">
+        <v>28</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="69">
+        <f>SUM(F3:F4)</f>
+        <v>5583</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="76"/>
+      <c r="K5" s="69">
+        <f>SUM(K3:K4)</f>
+        <v>1034</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="38">
+        <v>28.5</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="11"/>
+      <c r="A7" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="39">
+        <v>24.5</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7094,10 +7586,12 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="38">
+        <v>25</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7119,9 +7613,13 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="A9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="39">
+        <v>8.5</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7141,10 +7639,12 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="38">
+        <v>22</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -7161,9 +7661,12 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="39">
+        <v>3</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -7180,6 +7683,12 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="38">
+        <v>3</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7198,7 +7707,14 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="69">
+        <f>SUM(B3:B12)</f>
+        <v>181.5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -7218,6 +7734,8 @@
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -7236,7 +7754,14 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -7255,10 +7780,15 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+    <row r="16" spans="1:21" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="D16" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -7274,14 +7804,18 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:21" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="D17" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="86"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -7297,14 +7831,18 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="48"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -7320,14 +7858,18 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="D19" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="48"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -7343,14 +7885,19 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="D20" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76">
+        <f>SUM(F18:F19)</f>
+        <v>9000</v>
+      </c>
+      <c r="G20" s="76"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -14799,10 +15346,6 @@
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
@@ -14822,10 +15365,6 @@
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
-      <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
@@ -14842,11 +15381,23 @@
       <c r="U345" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
+  <mergeCells count="16">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
